--- a/EXTRA/‏‏potential.xlsx
+++ b/EXTRA/‏‏potential.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="חוברת_עבודה_זו" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr codeName="חוברת_עבודה_זו"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="http://base0502.sites.airnet/Marom/merkaz_ahzaka/MashovPotential/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_ws\new-pro\EXTRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E3A51-8022-4B7F-A932-E64CD577B870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
+    <workbookView xWindow="4188" yWindow="2460" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פוטנציאל 2022" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="356">
   <si>
     <t>פוטנציאל 2022</t>
   </si>
@@ -928,7 +929,7 @@
         <b/>
         <sz val="11"/>
         <color theme="0"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -939,7 +940,7 @@
         <b/>
         <sz val="14"/>
         <color theme="0"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,15 +1184,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1200,7 +1201,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1209,7 +1210,7 @@
       <b/>
       <sz val="28"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1217,7 +1218,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1237,13 +1238,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1252,7 +1253,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1260,7 +1261,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1275,7 +1276,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1283,7 +1284,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1291,7 +1292,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1299,7 +1300,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1308,7 +1309,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -2022,7 +2023,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ימי הולדת" xfId="1"/>
+    <cellStyle name="ימי הולדת" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1920">
     <dxf>
@@ -19909,83 +19910,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5162549" cy="1209674"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="מלבן 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11227098451" y="990600"/>
-          <a:ext cx="5162549" cy="1209674"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r" rtl="1"/>
-          <a:r>
-            <a:rPr lang="he-IL" sz="7200" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="AdumaFOT Medium" panose="02000500000000000000" pitchFamily="50" charset="-79"/>
-              <a:cs typeface="AdumaFOT Medium" panose="02000500000000000000" pitchFamily="50" charset="-79"/>
-            </a:rPr>
-            <a:t>פוטנציאל שבועי</a:t>
-          </a:r>
-          <a:endParaRPr lang="he-IL" sz="7200" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -20049,7 +19973,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -20380,42 +20304,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1:W456"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="H314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="V325" sqref="V325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" style="38" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="43" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="43" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="19.375" customWidth="1"/>
-    <col min="11" max="11" width="21.5" customWidth="1"/>
-    <col min="12" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="20.25" customWidth="1"/>
-    <col min="15" max="15" width="19.125" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="9" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="22" width="13.625" customWidth="1"/>
-    <col min="23" max="23" width="13.625" style="77" customWidth="1"/>
+    <col min="21" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="36" customHeight="1">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -20442,7 +20366,7 @@
       <c r="V1" s="79"/>
       <c r="W1" s="79"/>
     </row>
-    <row r="2" spans="1:23" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="21.9" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
@@ -20513,7 +20437,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="21.9" customHeight="1">
       <c r="A3" s="7">
         <v>44500</v>
       </c>
@@ -20542,7 +20466,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="21.9" customHeight="1">
       <c r="A4" s="7">
         <v>44501</v>
       </c>
@@ -20577,7 +20501,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="21.9" customHeight="1">
       <c r="A5" s="7">
         <v>44502</v>
       </c>
@@ -20616,7 +20540,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="21.9" customHeight="1">
       <c r="A6" s="7">
         <v>44503</v>
       </c>
@@ -20653,7 +20577,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="21.9" customHeight="1">
       <c r="A7" s="10">
         <v>44504</v>
       </c>
@@ -20688,7 +20612,7 @@
       <c r="V7" s="13"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="21.9" customHeight="1">
       <c r="A8" s="10">
         <v>44505</v>
       </c>
@@ -20721,7 +20645,7 @@
       <c r="V8" s="13"/>
       <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="21.9" customHeight="1">
       <c r="A9" s="10">
         <v>44506</v>
       </c>
@@ -20754,7 +20678,7 @@
       <c r="V9" s="13"/>
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="21.9" customHeight="1">
       <c r="A10" s="7">
         <v>44507</v>
       </c>
@@ -20799,7 +20723,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="21.9" customHeight="1">
       <c r="A11" s="7">
         <v>44508</v>
       </c>
@@ -20848,7 +20772,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="21.9" customHeight="1">
       <c r="A12" s="7">
         <v>44509</v>
       </c>
@@ -20891,7 +20815,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="21.9" customHeight="1">
       <c r="A13" s="7">
         <v>44510</v>
       </c>
@@ -20938,7 +20862,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="21.9" customHeight="1">
       <c r="A14" s="10">
         <v>44511</v>
       </c>
@@ -20983,7 +20907,7 @@
       <c r="V14" s="13"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="21.9" customHeight="1">
       <c r="A15" s="10">
         <v>44512</v>
       </c>
@@ -21022,7 +20946,7 @@
       <c r="V15" s="13"/>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="21.9" customHeight="1">
       <c r="A16" s="10">
         <v>44513</v>
       </c>
@@ -21061,7 +20985,7 @@
       <c r="V16" s="13"/>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="21.9" customHeight="1">
       <c r="A17" s="7">
         <v>44514</v>
       </c>
@@ -21108,7 +21032,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="21.9" customHeight="1">
       <c r="A18" s="7">
         <v>44515</v>
       </c>
@@ -21151,7 +21075,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="21.9" customHeight="1">
       <c r="A19" s="7">
         <v>44516</v>
       </c>
@@ -21196,7 +21120,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="21.9" customHeight="1">
       <c r="A20" s="7">
         <v>44517</v>
       </c>
@@ -21239,7 +21163,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="21.9" customHeight="1">
       <c r="A21" s="10">
         <v>44518</v>
       </c>
@@ -21278,7 +21202,7 @@
       <c r="V21" s="13"/>
       <c r="W21" s="12"/>
     </row>
-    <row r="22" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="21.9" customHeight="1">
       <c r="A22" s="10">
         <v>44519</v>
       </c>
@@ -21311,7 +21235,7 @@
       <c r="V22" s="13"/>
       <c r="W22" s="12"/>
     </row>
-    <row r="23" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="21.9" customHeight="1">
       <c r="A23" s="10">
         <v>44520</v>
       </c>
@@ -21344,7 +21268,7 @@
       <c r="V23" s="13"/>
       <c r="W23" s="12"/>
     </row>
-    <row r="24" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="21.9" customHeight="1">
       <c r="A24" s="7">
         <v>44521</v>
       </c>
@@ -21379,7 +21303,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="21.9" customHeight="1">
       <c r="A25" s="7">
         <v>44522</v>
       </c>
@@ -21418,7 +21342,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="21.9" customHeight="1">
       <c r="A26" s="7">
         <v>44523</v>
       </c>
@@ -21454,7 +21378,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="21.9" customHeight="1">
       <c r="A27" s="7">
         <v>44524</v>
       </c>
@@ -21485,7 +21409,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="21.9" customHeight="1">
       <c r="A28" s="10">
         <v>44525</v>
       </c>
@@ -21524,7 +21448,7 @@
       <c r="V28" s="13"/>
       <c r="W28" s="12"/>
     </row>
-    <row r="29" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="21.9" customHeight="1">
       <c r="A29" s="10">
         <v>44526</v>
       </c>
@@ -21557,7 +21481,7 @@
       <c r="V29" s="13"/>
       <c r="W29" s="12"/>
     </row>
-    <row r="30" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="21.9" customHeight="1">
       <c r="A30" s="10">
         <v>44527</v>
       </c>
@@ -21592,7 +21516,7 @@
       <c r="V30" s="13"/>
       <c r="W30" s="12"/>
     </row>
-    <row r="31" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="21.9" customHeight="1">
       <c r="A31" s="7">
         <v>44528</v>
       </c>
@@ -21641,7 +21565,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="21.9" customHeight="1">
       <c r="A32" s="7">
         <v>44529</v>
       </c>
@@ -21678,7 +21602,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="21.9" customHeight="1">
       <c r="A33" s="7">
         <v>44530</v>
       </c>
@@ -21718,7 +21642,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="21.9" customHeight="1">
       <c r="A34" s="7">
         <v>44531</v>
       </c>
@@ -21761,7 +21685,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="21.9" customHeight="1">
       <c r="A35" s="10">
         <v>44532</v>
       </c>
@@ -21804,7 +21728,7 @@
       <c r="V35" s="13"/>
       <c r="W35" s="12"/>
     </row>
-    <row r="36" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="21.9" customHeight="1">
       <c r="A36" s="10">
         <v>44533</v>
       </c>
@@ -21839,7 +21763,7 @@
       <c r="V36" s="13"/>
       <c r="W36" s="12"/>
     </row>
-    <row r="37" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="21.9" customHeight="1">
       <c r="A37" s="10">
         <v>44534</v>
       </c>
@@ -21874,7 +21798,7 @@
       <c r="V37" s="13"/>
       <c r="W37" s="12"/>
     </row>
-    <row r="38" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="21.9" customHeight="1">
       <c r="A38" s="7">
         <v>44535</v>
       </c>
@@ -21915,7 +21839,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="8"/>
     </row>
-    <row r="39" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="21.9" customHeight="1">
       <c r="A39" s="7">
         <v>44536</v>
       </c>
@@ -21950,7 +21874,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="21.9" customHeight="1">
       <c r="A40" s="7">
         <v>44537</v>
       </c>
@@ -21985,7 +21909,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="21.9" customHeight="1">
       <c r="A41" s="7">
         <v>44538</v>
       </c>
@@ -22020,7 +21944,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="21.9" customHeight="1">
       <c r="A42" s="10">
         <v>44539</v>
       </c>
@@ -22059,7 +21983,7 @@
       <c r="V42" s="13"/>
       <c r="W42" s="12"/>
     </row>
-    <row r="43" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="21.9" customHeight="1">
       <c r="A43" s="10">
         <v>44540</v>
       </c>
@@ -22094,7 +22018,7 @@
       <c r="V43" s="13"/>
       <c r="W43" s="12"/>
     </row>
-    <row r="44" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="21.9" customHeight="1">
       <c r="A44" s="10">
         <v>44541</v>
       </c>
@@ -22129,7 +22053,7 @@
       <c r="V44" s="13"/>
       <c r="W44" s="12"/>
     </row>
-    <row r="45" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="21.9" customHeight="1">
       <c r="A45" s="7">
         <v>44542</v>
       </c>
@@ -22164,7 +22088,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="8"/>
     </row>
-    <row r="46" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="21.9" customHeight="1">
       <c r="A46" s="7">
         <v>44543</v>
       </c>
@@ -22211,7 +22135,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="21.9" customHeight="1">
       <c r="A47" s="7">
         <v>44544</v>
       </c>
@@ -22250,7 +22174,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="21.9" customHeight="1">
       <c r="A48" s="7">
         <v>44545</v>
       </c>
@@ -22287,7 +22211,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="8"/>
     </row>
-    <row r="49" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="21.9" customHeight="1">
       <c r="A49" s="10">
         <v>44546</v>
       </c>
@@ -22328,7 +22252,7 @@
       <c r="V49" s="13"/>
       <c r="W49" s="12"/>
     </row>
-    <row r="50" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="21.9" customHeight="1">
       <c r="A50" s="10">
         <v>44547</v>
       </c>
@@ -22361,7 +22285,7 @@
       <c r="V50" s="13"/>
       <c r="W50" s="12"/>
     </row>
-    <row r="51" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="21.9" customHeight="1">
       <c r="A51" s="10">
         <v>44548</v>
       </c>
@@ -22394,7 +22318,7 @@
       <c r="V51" s="13"/>
       <c r="W51" s="12"/>
     </row>
-    <row r="52" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="21.9" customHeight="1">
       <c r="A52" s="7">
         <v>44549</v>
       </c>
@@ -22425,7 +22349,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="21.9" customHeight="1">
       <c r="A53" s="7">
         <v>44550</v>
       </c>
@@ -22462,7 +22386,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="21.9" customHeight="1">
       <c r="A54" s="7">
         <v>44551</v>
       </c>
@@ -22491,7 +22415,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="21.9" customHeight="1">
       <c r="A55" s="7">
         <v>44552</v>
       </c>
@@ -22526,7 +22450,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="21.9" customHeight="1">
       <c r="A56" s="10">
         <v>44553</v>
       </c>
@@ -22565,7 +22489,7 @@
       <c r="V56" s="13"/>
       <c r="W56" s="12"/>
     </row>
-    <row r="57" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="21.9" customHeight="1">
       <c r="A57" s="10">
         <v>44554</v>
       </c>
@@ -22600,7 +22524,7 @@
       <c r="V57" s="13"/>
       <c r="W57" s="12"/>
     </row>
-    <row r="58" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="21.9" customHeight="1">
       <c r="A58" s="10">
         <v>44555</v>
       </c>
@@ -22635,7 +22559,7 @@
       <c r="V58" s="13"/>
       <c r="W58" s="12"/>
     </row>
-    <row r="59" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="21.9" customHeight="1">
       <c r="A59" s="7">
         <v>44556</v>
       </c>
@@ -22668,7 +22592,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="21.9" customHeight="1">
       <c r="A60" s="7">
         <v>44557</v>
       </c>
@@ -22701,7 +22625,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="21.9" customHeight="1">
       <c r="A61" s="7">
         <v>44558</v>
       </c>
@@ -22735,7 +22659,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="8"/>
     </row>
-    <row r="62" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="21.9" customHeight="1">
       <c r="A62" s="7">
         <v>44559</v>
       </c>
@@ -22770,7 +22694,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="8"/>
     </row>
-    <row r="63" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="21.9" customHeight="1">
       <c r="A63" s="10">
         <v>44560</v>
       </c>
@@ -22815,7 +22739,7 @@
       <c r="V63" s="13"/>
       <c r="W63" s="12"/>
     </row>
-    <row r="64" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="21.9" customHeight="1">
       <c r="A64" s="10">
         <v>44561</v>
       </c>
@@ -22852,7 +22776,7 @@
       <c r="V64" s="13"/>
       <c r="W64" s="12"/>
     </row>
-    <row r="65" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" ht="21.9" customHeight="1">
       <c r="A65" s="10">
         <v>44562</v>
       </c>
@@ -22889,7 +22813,7 @@
       <c r="V65" s="13"/>
       <c r="W65" s="12"/>
     </row>
-    <row r="66" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="21.9" customHeight="1">
       <c r="A66" s="7">
         <v>44563</v>
       </c>
@@ -22928,7 +22852,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="21.9" customHeight="1">
       <c r="A67" s="7">
         <v>44564</v>
       </c>
@@ -22961,7 +22885,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="21.9" customHeight="1">
       <c r="A68" s="7">
         <v>44565</v>
       </c>
@@ -22991,7 +22915,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="8"/>
     </row>
-    <row r="69" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" ht="21.9" customHeight="1">
       <c r="A69" s="7">
         <v>44566</v>
       </c>
@@ -23024,7 +22948,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="21.9" customHeight="1">
       <c r="A70" s="10">
         <v>44567</v>
       </c>
@@ -23063,7 +22987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="21.9" customHeight="1">
       <c r="A71" s="10">
         <v>44568</v>
       </c>
@@ -23100,7 +23024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="21.9" customHeight="1">
       <c r="A72" s="10">
         <v>44569</v>
       </c>
@@ -23139,7 +23063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="21.9" customHeight="1">
       <c r="A73" s="7">
         <v>44570</v>
       </c>
@@ -23177,7 +23101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="21.9" customHeight="1">
       <c r="A74" s="7">
         <v>44571</v>
       </c>
@@ -23212,7 +23136,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="8"/>
     </row>
-    <row r="75" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="21.9" customHeight="1">
       <c r="A75" s="7">
         <v>44572</v>
       </c>
@@ -23244,7 +23168,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="8"/>
     </row>
-    <row r="76" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="21.9" customHeight="1">
       <c r="A76" s="7">
         <v>44573</v>
       </c>
@@ -23277,7 +23201,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="8"/>
     </row>
-    <row r="77" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="21.9" customHeight="1">
       <c r="A77" s="10">
         <v>44574</v>
       </c>
@@ -23314,7 +23238,7 @@
       <c r="V77" s="13"/>
       <c r="W77" s="12"/>
     </row>
-    <row r="78" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="21.9" customHeight="1">
       <c r="A78" s="10">
         <v>44575</v>
       </c>
@@ -23349,7 +23273,7 @@
       <c r="V78" s="13"/>
       <c r="W78" s="12"/>
     </row>
-    <row r="79" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="21.9" customHeight="1">
       <c r="A79" s="10">
         <v>44576</v>
       </c>
@@ -23384,7 +23308,7 @@
       <c r="V79" s="13"/>
       <c r="W79" s="12"/>
     </row>
-    <row r="80" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="21.9" customHeight="1">
       <c r="A80" s="7">
         <v>44577</v>
       </c>
@@ -23415,7 +23339,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="8"/>
     </row>
-    <row r="81" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="21.9" customHeight="1">
       <c r="A81" s="7">
         <v>44578</v>
       </c>
@@ -23450,7 +23374,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="8"/>
     </row>
-    <row r="82" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="21.9" customHeight="1">
       <c r="A82" s="7">
         <v>44579</v>
       </c>
@@ -23482,7 +23406,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="8"/>
     </row>
-    <row r="83" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="21.9" customHeight="1">
       <c r="A83" s="7">
         <v>44580</v>
       </c>
@@ -23513,7 +23437,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="21.9" customHeight="1">
       <c r="A84" s="10">
         <v>44581</v>
       </c>
@@ -23550,7 +23474,7 @@
       <c r="V84" s="13"/>
       <c r="W84" s="12"/>
     </row>
-    <row r="85" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" ht="21.9" customHeight="1">
       <c r="A85" s="10">
         <v>44582</v>
       </c>
@@ -23583,7 +23507,7 @@
       <c r="V85" s="13"/>
       <c r="W85" s="12"/>
     </row>
-    <row r="86" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="21.9" customHeight="1">
       <c r="A86" s="10">
         <v>44583</v>
       </c>
@@ -23616,7 +23540,7 @@
       <c r="V86" s="13"/>
       <c r="W86" s="12"/>
     </row>
-    <row r="87" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="21.9" customHeight="1">
       <c r="A87" s="7">
         <v>44584</v>
       </c>
@@ -23649,7 +23573,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="8"/>
     </row>
-    <row r="88" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="21.9" customHeight="1">
       <c r="A88" s="7">
         <v>44585</v>
       </c>
@@ -23680,7 +23604,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="8"/>
     </row>
-    <row r="89" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="21.9" customHeight="1">
       <c r="A89" s="7">
         <v>44586</v>
       </c>
@@ -23711,7 +23635,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="21.9" customHeight="1">
       <c r="A90" s="7">
         <v>44587</v>
       </c>
@@ -23742,7 +23666,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="21.9" customHeight="1">
       <c r="A91" s="10">
         <v>44588</v>
       </c>
@@ -23781,7 +23705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="21.9" customHeight="1">
       <c r="A92" s="10">
         <v>44589</v>
       </c>
@@ -23820,7 +23744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="21.9" customHeight="1">
       <c r="A93" s="10">
         <v>44590</v>
       </c>
@@ -23859,7 +23783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="21.9" customHeight="1">
       <c r="A94" s="7">
         <v>44591</v>
       </c>
@@ -23892,7 +23816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" ht="21.9" customHeight="1">
       <c r="A95" s="7">
         <v>44592</v>
       </c>
@@ -23921,7 +23845,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="8"/>
     </row>
-    <row r="96" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" ht="21.9" customHeight="1">
       <c r="A96" s="7">
         <v>44593</v>
       </c>
@@ -23953,7 +23877,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="8"/>
     </row>
-    <row r="97" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="21.9" customHeight="1">
       <c r="A97" s="7">
         <v>44594</v>
       </c>
@@ -23986,7 +23910,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="8"/>
     </row>
-    <row r="98" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="21.9" customHeight="1">
       <c r="A98" s="10">
         <v>44595</v>
       </c>
@@ -24021,7 +23945,7 @@
       <c r="V98" s="13"/>
       <c r="W98" s="12"/>
     </row>
-    <row r="99" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="21.9" customHeight="1">
       <c r="A99" s="10">
         <v>44596</v>
       </c>
@@ -24054,7 +23978,7 @@
       <c r="V99" s="13"/>
       <c r="W99" s="12"/>
     </row>
-    <row r="100" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="21.9" customHeight="1">
       <c r="A100" s="10">
         <v>44597</v>
       </c>
@@ -24087,7 +24011,7 @@
       <c r="V100" s="13"/>
       <c r="W100" s="12"/>
     </row>
-    <row r="101" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="21.9" customHeight="1">
       <c r="A101" s="7">
         <v>44598</v>
       </c>
@@ -24118,7 +24042,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="8"/>
     </row>
-    <row r="102" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="21.9" customHeight="1">
       <c r="A102" s="7">
         <v>44599</v>
       </c>
@@ -24149,7 +24073,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="21.9" customHeight="1">
       <c r="A103" s="7">
         <v>44600</v>
       </c>
@@ -24180,7 +24104,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="8"/>
     </row>
-    <row r="104" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="21.9" customHeight="1">
       <c r="A104" s="7">
         <v>44601</v>
       </c>
@@ -24213,7 +24137,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="8"/>
     </row>
-    <row r="105" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="21.9" customHeight="1">
       <c r="A105" s="10">
         <v>44602</v>
       </c>
@@ -24252,7 +24176,7 @@
       <c r="V105" s="13"/>
       <c r="W105" s="12"/>
     </row>
-    <row r="106" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="21.9" customHeight="1">
       <c r="A106" s="10">
         <v>44603</v>
       </c>
@@ -24291,7 +24215,7 @@
       <c r="V106" s="13"/>
       <c r="W106" s="12"/>
     </row>
-    <row r="107" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="21.9" customHeight="1">
       <c r="A107" s="10">
         <v>44604</v>
       </c>
@@ -24330,7 +24254,7 @@
       <c r="V107" s="13"/>
       <c r="W107" s="12"/>
     </row>
-    <row r="108" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="21.9" customHeight="1">
       <c r="A108" s="7">
         <v>44605</v>
       </c>
@@ -24367,7 +24291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="21.9" customHeight="1">
       <c r="A109" s="7">
         <v>44606</v>
       </c>
@@ -24400,7 +24324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="21.9" customHeight="1">
       <c r="A110" s="7">
         <v>44607</v>
       </c>
@@ -24437,7 +24361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="21.9" customHeight="1">
       <c r="A111" s="7">
         <v>44608</v>
       </c>
@@ -24474,7 +24398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="21.9" customHeight="1">
       <c r="A112" s="10">
         <v>44609</v>
       </c>
@@ -24511,7 +24435,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="21.9" customHeight="1">
       <c r="A113" s="10">
         <v>44610</v>
       </c>
@@ -24544,7 +24468,7 @@
       <c r="V113" s="13"/>
       <c r="W113" s="12"/>
     </row>
-    <row r="114" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="21.9" customHeight="1">
       <c r="A114" s="10">
         <v>44611</v>
       </c>
@@ -24577,7 +24501,7 @@
       <c r="V114" s="13"/>
       <c r="W114" s="12"/>
     </row>
-    <row r="115" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="21.9" customHeight="1">
       <c r="A115" s="7">
         <v>44612</v>
       </c>
@@ -24612,7 +24536,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="8"/>
     </row>
-    <row r="116" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="21.9" customHeight="1">
       <c r="A116" s="7">
         <v>44613</v>
       </c>
@@ -24649,7 +24573,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="8"/>
     </row>
-    <row r="117" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="21.9" customHeight="1">
       <c r="A117" s="7">
         <v>44614</v>
       </c>
@@ -24679,7 +24603,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="8"/>
     </row>
-    <row r="118" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="21.9" customHeight="1">
       <c r="A118" s="7">
         <v>44615</v>
       </c>
@@ -24710,7 +24634,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="8"/>
     </row>
-    <row r="119" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="21.9" customHeight="1">
       <c r="A119" s="10">
         <v>44616</v>
       </c>
@@ -24747,7 +24671,7 @@
       <c r="V119" s="13"/>
       <c r="W119" s="12"/>
     </row>
-    <row r="120" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="21.9" customHeight="1">
       <c r="A120" s="10">
         <v>44617</v>
       </c>
@@ -24780,7 +24704,7 @@
       <c r="V120" s="13"/>
       <c r="W120" s="12"/>
     </row>
-    <row r="121" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="21.9" customHeight="1">
       <c r="A121" s="10">
         <v>44618</v>
       </c>
@@ -24813,7 +24737,7 @@
       <c r="V121" s="13"/>
       <c r="W121" s="12"/>
     </row>
-    <row r="122" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="21.9" customHeight="1">
       <c r="A122" s="7">
         <v>44619</v>
       </c>
@@ -24850,7 +24774,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="8"/>
     </row>
-    <row r="123" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="21.9" customHeight="1">
       <c r="A123" s="7">
         <v>44620</v>
       </c>
@@ -24885,7 +24809,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="8"/>
     </row>
-    <row r="124" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="21.9" customHeight="1">
       <c r="A124" s="7">
         <v>44621</v>
       </c>
@@ -24921,7 +24845,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="8"/>
     </row>
-    <row r="125" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="21.9" customHeight="1">
       <c r="A125" s="7">
         <v>44622</v>
       </c>
@@ -24958,7 +24882,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="8"/>
     </row>
-    <row r="126" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="21.9" customHeight="1">
       <c r="A126" s="10">
         <v>44623</v>
       </c>
@@ -24997,7 +24921,7 @@
       <c r="V126" s="13"/>
       <c r="W126" s="12"/>
     </row>
-    <row r="127" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="21.9" customHeight="1">
       <c r="A127" s="10">
         <v>44624</v>
       </c>
@@ -25032,7 +24956,7 @@
       <c r="V127" s="13"/>
       <c r="W127" s="12"/>
     </row>
-    <row r="128" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="21.9" customHeight="1">
       <c r="A128" s="10">
         <v>44625</v>
       </c>
@@ -25067,7 +24991,7 @@
       <c r="V128" s="13"/>
       <c r="W128" s="12"/>
     </row>
-    <row r="129" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="21.9" customHeight="1">
       <c r="A129" s="7">
         <v>44626</v>
       </c>
@@ -25100,7 +25024,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="8"/>
     </row>
-    <row r="130" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="21.9" customHeight="1">
       <c r="A130" s="7">
         <v>44627</v>
       </c>
@@ -25133,7 +25057,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="8"/>
     </row>
-    <row r="131" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="21.9" customHeight="1">
       <c r="A131" s="7">
         <v>44628</v>
       </c>
@@ -25167,7 +25091,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="8"/>
     </row>
-    <row r="132" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="21.9" customHeight="1">
       <c r="A132" s="7">
         <v>44629</v>
       </c>
@@ -25198,7 +25122,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="8"/>
     </row>
-    <row r="133" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="21.9" customHeight="1">
       <c r="A133" s="10">
         <v>44630</v>
       </c>
@@ -25237,7 +25161,7 @@
       <c r="V133" s="13"/>
       <c r="W133" s="12"/>
     </row>
-    <row r="134" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="21.9" customHeight="1">
       <c r="A134" s="10">
         <v>44631</v>
       </c>
@@ -25274,7 +25198,7 @@
       <c r="V134" s="13"/>
       <c r="W134" s="12"/>
     </row>
-    <row r="135" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="21.9" customHeight="1">
       <c r="A135" s="10">
         <v>44632</v>
       </c>
@@ -25311,7 +25235,7 @@
       <c r="V135" s="13"/>
       <c r="W135" s="12"/>
     </row>
-    <row r="136" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="21.9" customHeight="1">
       <c r="A136" s="7">
         <v>44633</v>
       </c>
@@ -25344,7 +25268,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="8"/>
     </row>
-    <row r="137" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="21.9" customHeight="1">
       <c r="A137" s="7">
         <v>44634</v>
       </c>
@@ -25373,7 +25297,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="8"/>
     </row>
-    <row r="138" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="21.9" customHeight="1">
       <c r="A138" s="7">
         <v>44635</v>
       </c>
@@ -25404,7 +25328,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="8"/>
     </row>
-    <row r="139" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="21.9" customHeight="1">
       <c r="A139" s="7">
         <v>44636</v>
       </c>
@@ -25445,7 +25369,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="8"/>
     </row>
-    <row r="140" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="21.9" customHeight="1">
       <c r="A140" s="10">
         <v>44637</v>
       </c>
@@ -25490,7 +25414,7 @@
       <c r="V140" s="13"/>
       <c r="W140" s="12"/>
     </row>
-    <row r="141" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="21.9" customHeight="1">
       <c r="A141" s="10">
         <v>44638</v>
       </c>
@@ -25527,7 +25451,7 @@
       <c r="V141" s="13"/>
       <c r="W141" s="12"/>
     </row>
-    <row r="142" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="21.9" customHeight="1">
       <c r="A142" s="10">
         <v>44639</v>
       </c>
@@ -25560,7 +25484,7 @@
       <c r="V142" s="13"/>
       <c r="W142" s="12"/>
     </row>
-    <row r="143" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="21.9" customHeight="1">
       <c r="A143" s="7">
         <v>44640</v>
       </c>
@@ -25591,7 +25515,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="8"/>
     </row>
-    <row r="144" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="21.9" customHeight="1">
       <c r="A144" s="7">
         <v>44641</v>
       </c>
@@ -25624,7 +25548,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="8"/>
     </row>
-    <row r="145" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" ht="21.9" customHeight="1">
       <c r="A145" s="7">
         <v>44642</v>
       </c>
@@ -25658,7 +25582,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="8"/>
     </row>
-    <row r="146" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="21.9" customHeight="1">
       <c r="A146" s="7">
         <v>44643</v>
       </c>
@@ -25691,7 +25615,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="8"/>
     </row>
-    <row r="147" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" ht="21.9" customHeight="1">
       <c r="A147" s="10">
         <v>44644</v>
       </c>
@@ -25732,7 +25656,7 @@
       <c r="V147" s="13"/>
       <c r="W147" s="12"/>
     </row>
-    <row r="148" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" ht="21.9" customHeight="1">
       <c r="A148" s="10">
         <v>44645</v>
       </c>
@@ -25767,7 +25691,7 @@
       <c r="V148" s="13"/>
       <c r="W148" s="12"/>
     </row>
-    <row r="149" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="21.9" customHeight="1">
       <c r="A149" s="10">
         <v>44646</v>
       </c>
@@ -25802,7 +25726,7 @@
       <c r="V149" s="13"/>
       <c r="W149" s="12"/>
     </row>
-    <row r="150" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" ht="21.9" customHeight="1">
       <c r="A150" s="7">
         <v>44647</v>
       </c>
@@ -25835,7 +25759,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="8"/>
     </row>
-    <row r="151" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" ht="21.9" customHeight="1">
       <c r="A151" s="7">
         <v>44648</v>
       </c>
@@ -25870,7 +25794,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="8"/>
     </row>
-    <row r="152" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" ht="21.9" customHeight="1">
       <c r="A152" s="7">
         <v>44649</v>
       </c>
@@ -25904,7 +25828,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="8"/>
     </row>
-    <row r="153" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" ht="21.9" customHeight="1">
       <c r="A153" s="7">
         <v>44650</v>
       </c>
@@ -25937,7 +25861,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="8"/>
     </row>
-    <row r="154" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" ht="21.9" customHeight="1">
       <c r="A154" s="10">
         <v>44651</v>
       </c>
@@ -25974,7 +25898,7 @@
       <c r="V154" s="13"/>
       <c r="W154" s="12"/>
     </row>
-    <row r="155" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" ht="21.9" customHeight="1">
       <c r="A155" s="10">
         <v>44652</v>
       </c>
@@ -26009,7 +25933,7 @@
       <c r="V155" s="13"/>
       <c r="W155" s="12"/>
     </row>
-    <row r="156" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" ht="21.9" customHeight="1">
       <c r="A156" s="10">
         <v>44653</v>
       </c>
@@ -26044,7 +25968,7 @@
       <c r="V156" s="13"/>
       <c r="W156" s="12"/>
     </row>
-    <row r="157" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" ht="21.9" customHeight="1">
       <c r="A157" s="7">
         <v>44654</v>
       </c>
@@ -26079,7 +26003,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="8"/>
     </row>
-    <row r="158" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" ht="21.9" customHeight="1">
       <c r="A158" s="7">
         <v>44655</v>
       </c>
@@ -26114,7 +26038,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="8"/>
     </row>
-    <row r="159" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" ht="21.9" customHeight="1">
       <c r="A159" s="7">
         <v>44656</v>
       </c>
@@ -26149,7 +26073,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="8"/>
     </row>
-    <row r="160" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" ht="21.9" customHeight="1">
       <c r="A160" s="7">
         <v>44657</v>
       </c>
@@ -26188,7 +26112,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="8"/>
     </row>
-    <row r="161" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" ht="21.9" customHeight="1">
       <c r="A161" s="10">
         <v>44658</v>
       </c>
@@ -26229,7 +26153,7 @@
       <c r="V161" s="13"/>
       <c r="W161" s="12"/>
     </row>
-    <row r="162" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" ht="21.9" customHeight="1">
       <c r="A162" s="10">
         <v>44659</v>
       </c>
@@ -26262,7 +26186,7 @@
       <c r="V162" s="13"/>
       <c r="W162" s="12"/>
     </row>
-    <row r="163" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" ht="21.9" customHeight="1">
       <c r="A163" s="10">
         <v>44660</v>
       </c>
@@ -26295,7 +26219,7 @@
       <c r="V163" s="13"/>
       <c r="W163" s="12"/>
     </row>
-    <row r="164" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" ht="21.9" customHeight="1">
       <c r="A164" s="7">
         <v>44661</v>
       </c>
@@ -26330,7 +26254,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="8"/>
     </row>
-    <row r="165" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" ht="21.9" customHeight="1">
       <c r="A165" s="7">
         <v>44662</v>
       </c>
@@ -26369,7 +26293,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="8"/>
     </row>
-    <row r="166" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" ht="21.9" customHeight="1">
       <c r="A166" s="7">
         <v>44663</v>
       </c>
@@ -26404,7 +26328,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="8"/>
     </row>
-    <row r="167" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" ht="21.9" customHeight="1">
       <c r="A167" s="7">
         <v>44664</v>
       </c>
@@ -26444,7 +26368,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="8"/>
     </row>
-    <row r="168" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" ht="21.9" customHeight="1">
       <c r="A168" s="10">
         <v>44665</v>
       </c>
@@ -26479,7 +26403,7 @@
       <c r="V168" s="13"/>
       <c r="W168" s="12"/>
     </row>
-    <row r="169" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" ht="21.9" customHeight="1">
       <c r="A169" s="10">
         <v>44666</v>
       </c>
@@ -26514,7 +26438,7 @@
       <c r="V169" s="13"/>
       <c r="W169" s="12"/>
     </row>
-    <row r="170" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" ht="21.9" customHeight="1">
       <c r="A170" s="10">
         <v>44667</v>
       </c>
@@ -26549,7 +26473,7 @@
       <c r="V170" s="13"/>
       <c r="W170" s="12"/>
     </row>
-    <row r="171" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" ht="21.9" customHeight="1">
       <c r="A171" s="7">
         <v>44668</v>
       </c>
@@ -26600,7 +26524,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="8"/>
     </row>
-    <row r="172" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" ht="21.9" customHeight="1">
       <c r="A172" s="7">
         <v>44669</v>
       </c>
@@ -26651,7 +26575,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="8"/>
     </row>
-    <row r="173" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" ht="21.9" customHeight="1">
       <c r="A173" s="7">
         <v>44670</v>
       </c>
@@ -26702,7 +26626,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="8"/>
     </row>
-    <row r="174" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" ht="21.9" customHeight="1">
       <c r="A174" s="7">
         <v>44671</v>
       </c>
@@ -26753,7 +26677,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="8"/>
     </row>
-    <row r="175" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" ht="21.9" customHeight="1">
       <c r="A175" s="10">
         <v>44672</v>
       </c>
@@ -26802,7 +26726,7 @@
       <c r="V175" s="13"/>
       <c r="W175" s="12"/>
     </row>
-    <row r="176" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" ht="21.9" customHeight="1">
       <c r="A176" s="10">
         <v>44673</v>
       </c>
@@ -26841,7 +26765,7 @@
       <c r="V176" s="13"/>
       <c r="W176" s="12"/>
     </row>
-    <row r="177" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" ht="21.9" customHeight="1">
       <c r="A177" s="10">
         <v>44674</v>
       </c>
@@ -26876,7 +26800,7 @@
       <c r="V177" s="13"/>
       <c r="W177" s="12"/>
     </row>
-    <row r="178" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" ht="21.9" customHeight="1">
       <c r="A178" s="7">
         <v>44675</v>
       </c>
@@ -26921,7 +26845,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="8"/>
     </row>
-    <row r="179" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" ht="21.9" customHeight="1">
       <c r="A179" s="7">
         <v>44676</v>
       </c>
@@ -26950,7 +26874,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="8"/>
     </row>
-    <row r="180" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" ht="21.9" customHeight="1">
       <c r="A180" s="7">
         <v>44677</v>
       </c>
@@ -26980,7 +26904,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="8"/>
     </row>
-    <row r="181" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" ht="21.9" customHeight="1">
       <c r="A181" s="7">
         <v>44678</v>
       </c>
@@ -27013,7 +26937,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="8"/>
     </row>
-    <row r="182" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" ht="21.9" customHeight="1">
       <c r="A182" s="10">
         <v>44679</v>
       </c>
@@ -27048,7 +26972,7 @@
       <c r="V182" s="13"/>
       <c r="W182" s="12"/>
     </row>
-    <row r="183" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" ht="21.9" customHeight="1">
       <c r="A183" s="10">
         <v>44680</v>
       </c>
@@ -27081,7 +27005,7 @@
       <c r="V183" s="13"/>
       <c r="W183" s="12"/>
     </row>
-    <row r="184" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" ht="21.9" customHeight="1">
       <c r="A184" s="10">
         <v>44681</v>
       </c>
@@ -27114,7 +27038,7 @@
       <c r="V184" s="13"/>
       <c r="W184" s="12"/>
     </row>
-    <row r="185" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" ht="21.9" customHeight="1">
       <c r="A185" s="7">
         <v>44682</v>
       </c>
@@ -27143,7 +27067,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="8"/>
     </row>
-    <row r="186" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" ht="21.9" customHeight="1">
       <c r="A186" s="7">
         <v>44683</v>
       </c>
@@ -27173,7 +27097,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="8"/>
     </row>
-    <row r="187" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" ht="21.9" customHeight="1">
       <c r="A187" s="7">
         <v>44684</v>
       </c>
@@ -27206,7 +27130,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="8"/>
     </row>
-    <row r="188" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" ht="21.9" customHeight="1">
       <c r="A188" s="7">
         <v>44685</v>
       </c>
@@ -27245,7 +27169,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="8"/>
     </row>
-    <row r="189" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" ht="21.9" customHeight="1">
       <c r="A189" s="10">
         <v>44686</v>
       </c>
@@ -27294,7 +27218,7 @@
       <c r="V189" s="13"/>
       <c r="W189" s="12"/>
     </row>
-    <row r="190" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" ht="21.9" customHeight="1">
       <c r="A190" s="10">
         <v>44687</v>
       </c>
@@ -27329,7 +27253,7 @@
       <c r="V190" s="13"/>
       <c r="W190" s="12"/>
     </row>
-    <row r="191" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" ht="21.9" customHeight="1">
       <c r="A191" s="10">
         <v>44688</v>
       </c>
@@ -27364,7 +27288,7 @@
       <c r="V191" s="13"/>
       <c r="W191" s="12"/>
     </row>
-    <row r="192" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" ht="21.9" customHeight="1">
       <c r="A192" s="7">
         <v>44689</v>
       </c>
@@ -27397,7 +27321,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="8"/>
     </row>
-    <row r="193" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" ht="21.9" customHeight="1">
       <c r="A193" s="7">
         <v>44690</v>
       </c>
@@ -27429,7 +27353,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="8"/>
     </row>
-    <row r="194" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" ht="21.9" customHeight="1">
       <c r="A194" s="7">
         <v>44691</v>
       </c>
@@ -27464,7 +27388,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="8"/>
     </row>
-    <row r="195" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" ht="21.9" customHeight="1">
       <c r="A195" s="7">
         <v>44692</v>
       </c>
@@ -27495,7 +27419,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="8"/>
     </row>
-    <row r="196" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" ht="21.9" customHeight="1">
       <c r="A196" s="10">
         <v>44693</v>
       </c>
@@ -27532,7 +27456,7 @@
       <c r="V196" s="13"/>
       <c r="W196" s="12"/>
     </row>
-    <row r="197" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" ht="21.9" customHeight="1">
       <c r="A197" s="10">
         <v>44694</v>
       </c>
@@ -27565,7 +27489,7 @@
       <c r="V197" s="13"/>
       <c r="W197" s="12"/>
     </row>
-    <row r="198" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" ht="21.9" customHeight="1">
       <c r="A198" s="10">
         <v>44695</v>
       </c>
@@ -27598,7 +27522,7 @@
       <c r="V198" s="13"/>
       <c r="W198" s="12"/>
     </row>
-    <row r="199" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" ht="21.9" customHeight="1">
       <c r="A199" s="7">
         <v>44696</v>
       </c>
@@ -27633,7 +27557,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="8"/>
     </row>
-    <row r="200" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" ht="21.9" customHeight="1">
       <c r="A200" s="7">
         <v>44697</v>
       </c>
@@ -27662,7 +27586,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="8"/>
     </row>
-    <row r="201" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" ht="21.9" customHeight="1">
       <c r="A201" s="7">
         <v>44698</v>
       </c>
@@ -27693,7 +27617,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="8"/>
     </row>
-    <row r="202" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" ht="21.9" customHeight="1">
       <c r="A202" s="7">
         <v>44699</v>
       </c>
@@ -27721,7 +27645,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="8"/>
     </row>
-    <row r="203" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" ht="21.9" customHeight="1">
       <c r="A203" s="10">
         <v>44700</v>
       </c>
@@ -27764,7 +27688,7 @@
       <c r="V203" s="13"/>
       <c r="W203" s="12"/>
     </row>
-    <row r="204" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" ht="21.9" customHeight="1">
       <c r="A204" s="10">
         <v>44701</v>
       </c>
@@ -27801,7 +27725,7 @@
       <c r="V204" s="13"/>
       <c r="W204" s="12"/>
     </row>
-    <row r="205" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" ht="21.9" customHeight="1">
       <c r="A205" s="10">
         <v>44702</v>
       </c>
@@ -27838,7 +27762,7 @@
       <c r="V205" s="13"/>
       <c r="W205" s="12"/>
     </row>
-    <row r="206" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" ht="21.9" customHeight="1">
       <c r="A206" s="7">
         <v>44703</v>
       </c>
@@ -27873,7 +27797,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="8"/>
     </row>
-    <row r="207" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" ht="21.9" customHeight="1">
       <c r="A207" s="7">
         <v>44704</v>
       </c>
@@ -27906,7 +27830,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="8"/>
     </row>
-    <row r="208" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" ht="21.9" customHeight="1">
       <c r="A208" s="7">
         <v>44705</v>
       </c>
@@ -27938,7 +27862,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="8"/>
     </row>
-    <row r="209" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" ht="21.9" customHeight="1">
       <c r="A209" s="7">
         <v>44706</v>
       </c>
@@ -27971,7 +27895,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="8"/>
     </row>
-    <row r="210" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" ht="21.9" customHeight="1">
       <c r="A210" s="10">
         <v>44707</v>
       </c>
@@ -28006,7 +27930,7 @@
       <c r="V210" s="13"/>
       <c r="W210" s="12"/>
     </row>
-    <row r="211" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" ht="21.9" customHeight="1">
       <c r="A211" s="10">
         <v>44708</v>
       </c>
@@ -28037,7 +27961,7 @@
       <c r="V211" s="13"/>
       <c r="W211" s="12"/>
     </row>
-    <row r="212" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" ht="21.9" customHeight="1">
       <c r="A212" s="10">
         <v>44709</v>
       </c>
@@ -28068,7 +27992,7 @@
       <c r="V212" s="13"/>
       <c r="W212" s="12"/>
     </row>
-    <row r="213" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" ht="21.9" customHeight="1">
       <c r="A213" s="7">
         <v>44710</v>
       </c>
@@ -28103,7 +28027,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="8"/>
     </row>
-    <row r="214" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" ht="21.9" customHeight="1">
       <c r="A214" s="7">
         <v>44711</v>
       </c>
@@ -28138,7 +28062,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="8"/>
     </row>
-    <row r="215" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" ht="21.9" customHeight="1">
       <c r="A215" s="7">
         <v>44712</v>
       </c>
@@ -28172,7 +28096,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="8"/>
     </row>
-    <row r="216" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" ht="21.9" customHeight="1">
       <c r="A216" s="7">
         <v>44713</v>
       </c>
@@ -28199,7 +28123,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="8"/>
     </row>
-    <row r="217" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" ht="21.9" customHeight="1">
       <c r="A217" s="10">
         <v>44714</v>
       </c>
@@ -28236,7 +28160,7 @@
       <c r="V217" s="13"/>
       <c r="W217" s="12"/>
     </row>
-    <row r="218" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" ht="21.9" customHeight="1">
       <c r="A218" s="10">
         <v>44715</v>
       </c>
@@ -28271,7 +28195,7 @@
       <c r="V218" s="13"/>
       <c r="W218" s="12"/>
     </row>
-    <row r="219" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" ht="21.9" customHeight="1">
       <c r="A219" s="10">
         <v>44716</v>
       </c>
@@ -28310,7 +28234,7 @@
       <c r="V219" s="13"/>
       <c r="W219" s="12"/>
     </row>
-    <row r="220" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" ht="21.9" customHeight="1">
       <c r="A220" s="7">
         <v>44717</v>
       </c>
@@ -28367,7 +28291,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="8"/>
     </row>
-    <row r="221" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" ht="21.9" customHeight="1">
       <c r="A221" s="7">
         <v>44718</v>
       </c>
@@ -28397,7 +28321,7 @@
       <c r="V221" s="2"/>
       <c r="W221" s="8"/>
     </row>
-    <row r="222" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" ht="21.9" customHeight="1">
       <c r="A222" s="7">
         <v>44719</v>
       </c>
@@ -28425,7 +28349,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="8"/>
     </row>
-    <row r="223" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" ht="21.9" customHeight="1">
       <c r="A223" s="7">
         <v>44720</v>
       </c>
@@ -28463,7 +28387,7 @@
       <c r="V223" s="2"/>
       <c r="W223" s="8"/>
     </row>
-    <row r="224" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" ht="21.9" customHeight="1">
       <c r="A224" s="10">
         <v>44721</v>
       </c>
@@ -28508,7 +28432,7 @@
       <c r="V224" s="13"/>
       <c r="W224" s="12"/>
     </row>
-    <row r="225" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="21.9" customHeight="1">
       <c r="A225" s="10">
         <v>44722</v>
       </c>
@@ -28545,7 +28469,7 @@
       <c r="V225" s="13"/>
       <c r="W225" s="12"/>
     </row>
-    <row r="226" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" ht="21.9" customHeight="1">
       <c r="A226" s="10">
         <v>44723</v>
       </c>
@@ -28582,7 +28506,7 @@
       <c r="V226" s="13"/>
       <c r="W226" s="12"/>
     </row>
-    <row r="227" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" ht="21.9" customHeight="1">
       <c r="A227" s="7">
         <v>44724</v>
       </c>
@@ -28619,7 +28543,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="8"/>
     </row>
-    <row r="228" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" ht="21.9" customHeight="1">
       <c r="A228" s="7">
         <v>44725</v>
       </c>
@@ -28648,7 +28572,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="8"/>
     </row>
-    <row r="229" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" ht="21.9" customHeight="1">
       <c r="A229" s="7">
         <v>44726</v>
       </c>
@@ -28676,7 +28600,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="8"/>
     </row>
-    <row r="230" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" ht="21.9" customHeight="1">
       <c r="A230" s="7">
         <v>44727</v>
       </c>
@@ -28707,7 +28631,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="8"/>
     </row>
-    <row r="231" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" ht="21.9" customHeight="1">
       <c r="A231" s="10">
         <v>44728</v>
       </c>
@@ -28742,7 +28666,7 @@
       <c r="V231" s="13"/>
       <c r="W231" s="12"/>
     </row>
-    <row r="232" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" ht="21.9" customHeight="1">
       <c r="A232" s="10">
         <v>44729</v>
       </c>
@@ -28775,7 +28699,7 @@
       <c r="V232" s="13"/>
       <c r="W232" s="12"/>
     </row>
-    <row r="233" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" ht="21.9" customHeight="1">
       <c r="A233" s="10">
         <v>44730</v>
       </c>
@@ -28808,7 +28732,7 @@
       <c r="V233" s="13"/>
       <c r="W233" s="12"/>
     </row>
-    <row r="234" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" ht="21.9" customHeight="1">
       <c r="A234" s="7">
         <v>44731</v>
       </c>
@@ -28843,7 +28767,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="8"/>
     </row>
-    <row r="235" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" ht="21.9" customHeight="1">
       <c r="A235" s="7">
         <v>44732</v>
       </c>
@@ -28876,7 +28800,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="8"/>
     </row>
-    <row r="236" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" ht="21.9" customHeight="1">
       <c r="A236" s="7">
         <v>44733</v>
       </c>
@@ -28913,7 +28837,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="8"/>
     </row>
-    <row r="237" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" ht="21.9" customHeight="1">
       <c r="A237" s="7">
         <v>44734</v>
       </c>
@@ -28942,7 +28866,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="8"/>
     </row>
-    <row r="238" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" ht="21.9" customHeight="1">
       <c r="A238" s="10">
         <v>44735</v>
       </c>
@@ -28977,7 +28901,7 @@
       <c r="V238" s="13"/>
       <c r="W238" s="12"/>
     </row>
-    <row r="239" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" ht="21.9" customHeight="1">
       <c r="A239" s="10">
         <v>44736</v>
       </c>
@@ -29010,7 +28934,7 @@
       <c r="V239" s="13"/>
       <c r="W239" s="12"/>
     </row>
-    <row r="240" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" ht="21.9" customHeight="1">
       <c r="A240" s="10">
         <v>44737</v>
       </c>
@@ -29043,7 +28967,7 @@
       <c r="V240" s="13"/>
       <c r="W240" s="12"/>
     </row>
-    <row r="241" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" ht="21.9" customHeight="1">
       <c r="A241" s="7">
         <v>44738</v>
       </c>
@@ -29078,7 +29002,7 @@
       <c r="V241" s="2"/>
       <c r="W241" s="8"/>
     </row>
-    <row r="242" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" ht="21.9" customHeight="1">
       <c r="A242" s="7">
         <v>44739</v>
       </c>
@@ -29111,7 +29035,7 @@
       <c r="V242" s="2"/>
       <c r="W242" s="8"/>
     </row>
-    <row r="243" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" ht="21.9" customHeight="1">
       <c r="A243" s="7">
         <v>44740</v>
       </c>
@@ -29144,7 +29068,7 @@
       <c r="V243" s="2"/>
       <c r="W243" s="8"/>
     </row>
-    <row r="244" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" ht="21.9" customHeight="1">
       <c r="A244" s="7">
         <v>44741</v>
       </c>
@@ -29179,7 +29103,7 @@
       <c r="V244" s="2"/>
       <c r="W244" s="8"/>
     </row>
-    <row r="245" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" ht="21.9" customHeight="1">
       <c r="A245" s="10">
         <v>44742</v>
       </c>
@@ -29218,7 +29142,7 @@
       <c r="V245" s="13"/>
       <c r="W245" s="12"/>
     </row>
-    <row r="246" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" ht="21.9" customHeight="1">
       <c r="A246" s="10">
         <v>44743</v>
       </c>
@@ -29257,7 +29181,7 @@
       <c r="V246" s="13"/>
       <c r="W246" s="12"/>
     </row>
-    <row r="247" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" ht="21.9" customHeight="1">
       <c r="A247" s="10">
         <v>44744</v>
       </c>
@@ -29296,7 +29220,7 @@
       <c r="V247" s="13"/>
       <c r="W247" s="12"/>
     </row>
-    <row r="248" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" ht="21.9" customHeight="1">
       <c r="A248" s="7">
         <v>44745</v>
       </c>
@@ -29337,7 +29261,7 @@
       <c r="V248" s="2"/>
       <c r="W248" s="8"/>
     </row>
-    <row r="249" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" ht="21.9" customHeight="1">
       <c r="A249" s="7">
         <v>44746</v>
       </c>
@@ -29373,7 +29297,7 @@
       <c r="V249" s="2"/>
       <c r="W249" s="8"/>
     </row>
-    <row r="250" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" ht="21.9" customHeight="1">
       <c r="A250" s="7">
         <v>44747</v>
       </c>
@@ -29407,7 +29331,7 @@
       <c r="V250" s="2"/>
       <c r="W250" s="8"/>
     </row>
-    <row r="251" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" ht="21.9" customHeight="1">
       <c r="A251" s="7">
         <v>44748</v>
       </c>
@@ -29440,7 +29364,7 @@
       <c r="V251" s="2"/>
       <c r="W251" s="8"/>
     </row>
-    <row r="252" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" ht="21.9" customHeight="1">
       <c r="A252" s="10">
         <v>44749</v>
       </c>
@@ -29479,7 +29403,7 @@
       <c r="V252" s="13"/>
       <c r="W252" s="12"/>
     </row>
-    <row r="253" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" ht="21.9" customHeight="1">
       <c r="A253" s="10">
         <v>44750</v>
       </c>
@@ -29516,7 +29440,7 @@
       <c r="V253" s="13"/>
       <c r="W253" s="12"/>
     </row>
-    <row r="254" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" ht="21.9" customHeight="1">
       <c r="A254" s="10">
         <v>44751</v>
       </c>
@@ -29553,7 +29477,7 @@
       <c r="V254" s="13"/>
       <c r="W254" s="12"/>
     </row>
-    <row r="255" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" ht="21.9" customHeight="1">
       <c r="A255" s="7">
         <v>44752</v>
       </c>
@@ -29586,7 +29510,7 @@
       <c r="V255" s="2"/>
       <c r="W255" s="8"/>
     </row>
-    <row r="256" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" ht="21.9" customHeight="1">
       <c r="A256" s="7">
         <v>44753</v>
       </c>
@@ -29621,7 +29545,7 @@
       <c r="V256" s="2"/>
       <c r="W256" s="8"/>
     </row>
-    <row r="257" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" ht="21.9" customHeight="1">
       <c r="A257" s="7">
         <v>44754</v>
       </c>
@@ -29659,7 +29583,7 @@
       <c r="V257" s="2"/>
       <c r="W257" s="8"/>
     </row>
-    <row r="258" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" ht="21.9" customHeight="1">
       <c r="A258" s="7">
         <v>44755</v>
       </c>
@@ -29692,7 +29616,7 @@
       <c r="V258" s="2"/>
       <c r="W258" s="8"/>
     </row>
-    <row r="259" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" ht="21.9" customHeight="1">
       <c r="A259" s="10">
         <v>44756</v>
       </c>
@@ -29739,7 +29663,7 @@
       <c r="V259" s="2"/>
       <c r="W259" s="12"/>
     </row>
-    <row r="260" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" ht="21.9" customHeight="1">
       <c r="A260" s="10">
         <v>44757</v>
       </c>
@@ -29780,7 +29704,7 @@
       <c r="V260" s="2"/>
       <c r="W260" s="12"/>
     </row>
-    <row r="261" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" ht="21.9" customHeight="1">
       <c r="A261" s="10">
         <v>44758</v>
       </c>
@@ -29821,7 +29745,7 @@
       <c r="V261" s="2"/>
       <c r="W261" s="12"/>
     </row>
-    <row r="262" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" ht="21.9" customHeight="1">
       <c r="A262" s="7">
         <v>44759</v>
       </c>
@@ -29857,7 +29781,7 @@
       <c r="V262" s="2"/>
       <c r="W262" s="8"/>
     </row>
-    <row r="263" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" ht="21.9" customHeight="1">
       <c r="A263" s="7">
         <v>44760</v>
       </c>
@@ -29894,7 +29818,7 @@
       <c r="V263" s="2"/>
       <c r="W263" s="8"/>
     </row>
-    <row r="264" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" ht="21.9" customHeight="1">
       <c r="A264" s="7">
         <v>44761</v>
       </c>
@@ -29927,7 +29851,7 @@
       <c r="V264" s="2"/>
       <c r="W264" s="8"/>
     </row>
-    <row r="265" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" ht="21.9" customHeight="1">
       <c r="A265" s="7">
         <v>44762</v>
       </c>
@@ -29966,7 +29890,7 @@
       <c r="V265" s="2"/>
       <c r="W265" s="8"/>
     </row>
-    <row r="266" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" ht="21.9" customHeight="1">
       <c r="A266" s="10">
         <v>44763</v>
       </c>
@@ -30011,7 +29935,7 @@
       <c r="V266" s="13"/>
       <c r="W266" s="12"/>
     </row>
-    <row r="267" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" ht="21.9" customHeight="1">
       <c r="A267" s="10">
         <v>44764</v>
       </c>
@@ -30052,7 +29976,7 @@
       <c r="V267" s="13"/>
       <c r="W267" s="12"/>
     </row>
-    <row r="268" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" ht="21.9" customHeight="1">
       <c r="A268" s="10">
         <v>44765</v>
       </c>
@@ -30093,7 +30017,7 @@
       <c r="V268" s="13"/>
       <c r="W268" s="12"/>
     </row>
-    <row r="269" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" ht="21.9" customHeight="1">
       <c r="A269" s="7">
         <v>44766</v>
       </c>
@@ -30138,7 +30062,7 @@
       <c r="V269" s="2"/>
       <c r="W269" s="8"/>
     </row>
-    <row r="270" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" ht="21.9" customHeight="1">
       <c r="A270" s="7">
         <v>44767</v>
       </c>
@@ -30179,7 +30103,7 @@
       <c r="V270" s="2"/>
       <c r="W270" s="8"/>
     </row>
-    <row r="271" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" ht="21.9" customHeight="1">
       <c r="A271" s="7">
         <v>44768</v>
       </c>
@@ -30215,7 +30139,7 @@
       <c r="V271" s="2"/>
       <c r="W271" s="8"/>
     </row>
-    <row r="272" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" ht="21.9" customHeight="1">
       <c r="A272" s="7">
         <v>44769</v>
       </c>
@@ -30250,7 +30174,7 @@
       <c r="V272" s="2"/>
       <c r="W272" s="8"/>
     </row>
-    <row r="273" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" ht="21.9" customHeight="1">
       <c r="A273" s="10">
         <v>44770</v>
       </c>
@@ -30293,7 +30217,7 @@
       <c r="V273" s="13"/>
       <c r="W273" s="12"/>
     </row>
-    <row r="274" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" ht="21.9" customHeight="1">
       <c r="A274" s="10">
         <v>44771</v>
       </c>
@@ -30334,7 +30258,7 @@
       <c r="V274" s="13"/>
       <c r="W274" s="12"/>
     </row>
-    <row r="275" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" ht="21.9" customHeight="1">
       <c r="A275" s="10">
         <v>44772</v>
       </c>
@@ -30375,7 +30299,7 @@
       <c r="V275" s="13"/>
       <c r="W275" s="12"/>
     </row>
-    <row r="276" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" ht="21.9" customHeight="1">
       <c r="A276" s="7">
         <v>44773</v>
       </c>
@@ -30408,7 +30332,7 @@
       <c r="V276" s="2"/>
       <c r="W276" s="8"/>
     </row>
-    <row r="277" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:23" ht="21.9" customHeight="1">
       <c r="A277" s="7">
         <v>44774</v>
       </c>
@@ -30437,7 +30361,7 @@
       <c r="V277" s="2"/>
       <c r="W277" s="8"/>
     </row>
-    <row r="278" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:23" ht="21.9" customHeight="1">
       <c r="A278" s="7">
         <v>44775</v>
       </c>
@@ -30465,7 +30389,7 @@
       <c r="V278" s="2"/>
       <c r="W278" s="8"/>
     </row>
-    <row r="279" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" ht="21.9" customHeight="1">
       <c r="A279" s="7">
         <v>44776</v>
       </c>
@@ -30496,7 +30420,7 @@
       <c r="V279" s="2"/>
       <c r="W279" s="8"/>
     </row>
-    <row r="280" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" ht="21.9" customHeight="1">
       <c r="A280" s="10">
         <v>44777</v>
       </c>
@@ -30533,7 +30457,7 @@
       <c r="V280" s="13"/>
       <c r="W280" s="12"/>
     </row>
-    <row r="281" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" ht="21.9" customHeight="1">
       <c r="A281" s="10">
         <v>44778</v>
       </c>
@@ -30570,7 +30494,7 @@
       <c r="V281" s="13"/>
       <c r="W281" s="12"/>
     </row>
-    <row r="282" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" ht="21.9" customHeight="1">
       <c r="A282" s="10">
         <v>44779</v>
       </c>
@@ -30609,7 +30533,7 @@
       <c r="V282" s="13"/>
       <c r="W282" s="12"/>
     </row>
-    <row r="283" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" ht="21.9" customHeight="1">
       <c r="A283" s="7">
         <v>44780</v>
       </c>
@@ -30646,7 +30570,7 @@
       <c r="V283" s="2"/>
       <c r="W283" s="8"/>
     </row>
-    <row r="284" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" ht="21.9" customHeight="1">
       <c r="A284" s="7">
         <v>44781</v>
       </c>
@@ -30681,7 +30605,7 @@
       <c r="V284" s="2"/>
       <c r="W284" s="8"/>
     </row>
-    <row r="285" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" ht="21.9" customHeight="1">
       <c r="A285" s="7">
         <v>44782</v>
       </c>
@@ -30717,7 +30641,7 @@
       <c r="V285" s="2"/>
       <c r="W285" s="8"/>
     </row>
-    <row r="286" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" ht="21.9" customHeight="1">
       <c r="A286" s="7">
         <v>44783</v>
       </c>
@@ -30753,7 +30677,7 @@
       <c r="V286" s="2"/>
       <c r="W286" s="8"/>
     </row>
-    <row r="287" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" ht="21.9" customHeight="1">
       <c r="A287" s="10">
         <v>44784</v>
       </c>
@@ -30794,7 +30718,7 @@
       <c r="V287" s="13"/>
       <c r="W287" s="12"/>
     </row>
-    <row r="288" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" ht="21.9" customHeight="1">
       <c r="A288" s="10">
         <v>44785</v>
       </c>
@@ -30831,7 +30755,7 @@
       <c r="V288" s="13"/>
       <c r="W288" s="12"/>
     </row>
-    <row r="289" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:23" ht="21.9" customHeight="1">
       <c r="A289" s="10">
         <v>44786</v>
       </c>
@@ -30868,7 +30792,7 @@
       <c r="V289" s="13"/>
       <c r="W289" s="12"/>
     </row>
-    <row r="290" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" ht="21.9" customHeight="1">
       <c r="A290" s="7">
         <v>44787</v>
       </c>
@@ -30905,7 +30829,7 @@
       <c r="V290" s="2"/>
       <c r="W290" s="8"/>
     </row>
-    <row r="291" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:23" ht="21.9" customHeight="1">
       <c r="A291" s="7">
         <v>44788</v>
       </c>
@@ -30942,7 +30866,7 @@
       <c r="V291" s="2"/>
       <c r="W291" s="8"/>
     </row>
-    <row r="292" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:23" ht="21.9" customHeight="1">
       <c r="A292" s="7">
         <v>44789</v>
       </c>
@@ -30971,7 +30895,7 @@
       <c r="V292" s="2"/>
       <c r="W292" s="8"/>
     </row>
-    <row r="293" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:23" ht="21.9" customHeight="1">
       <c r="A293" s="7">
         <v>44790</v>
       </c>
@@ -31005,7 +30929,7 @@
       <c r="V293" s="2"/>
       <c r="W293" s="8"/>
     </row>
-    <row r="294" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" ht="21.9" customHeight="1">
       <c r="A294" s="10">
         <v>44791</v>
       </c>
@@ -31042,7 +30966,7 @@
       <c r="V294" s="13"/>
       <c r="W294" s="12"/>
     </row>
-    <row r="295" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:23" ht="21.9" customHeight="1">
       <c r="A295" s="10">
         <v>44792</v>
       </c>
@@ -31079,7 +31003,7 @@
       <c r="V295" s="13"/>
       <c r="W295" s="12"/>
     </row>
-    <row r="296" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:23" ht="21.9" customHeight="1">
       <c r="A296" s="10">
         <v>44793</v>
       </c>
@@ -31116,7 +31040,7 @@
       <c r="V296" s="13"/>
       <c r="W296" s="12"/>
     </row>
-    <row r="297" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:23" ht="21.9" customHeight="1">
       <c r="A297" s="7">
         <v>44794</v>
       </c>
@@ -31153,7 +31077,7 @@
       <c r="V297" s="2"/>
       <c r="W297" s="8"/>
     </row>
-    <row r="298" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:23" ht="21.9" customHeight="1">
       <c r="A298" s="7">
         <v>44795</v>
       </c>
@@ -31189,7 +31113,7 @@
       <c r="V298" s="2"/>
       <c r="W298" s="8"/>
     </row>
-    <row r="299" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:23" ht="21.9" customHeight="1">
       <c r="A299" s="7">
         <v>44796</v>
       </c>
@@ -31223,7 +31147,7 @@
       <c r="V299" s="2"/>
       <c r="W299" s="8"/>
     </row>
-    <row r="300" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:23" ht="21.9" customHeight="1">
       <c r="A300" s="7">
         <v>44797</v>
       </c>
@@ -31252,7 +31176,7 @@
       <c r="V300" s="2"/>
       <c r="W300" s="8"/>
     </row>
-    <row r="301" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:23" ht="21.9" customHeight="1">
       <c r="A301" s="10">
         <v>44798</v>
       </c>
@@ -31293,7 +31217,7 @@
       <c r="V301" s="13"/>
       <c r="W301" s="12"/>
     </row>
-    <row r="302" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:23" ht="21.9" customHeight="1">
       <c r="A302" s="10">
         <v>44799</v>
       </c>
@@ -31328,7 +31252,7 @@
       <c r="V302" s="13"/>
       <c r="W302" s="12"/>
     </row>
-    <row r="303" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:23" ht="21.9" customHeight="1">
       <c r="A303" s="10">
         <v>44800</v>
       </c>
@@ -31363,7 +31287,7 @@
       <c r="V303" s="13"/>
       <c r="W303" s="12"/>
     </row>
-    <row r="304" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:23" ht="21.9" customHeight="1">
       <c r="A304" s="7">
         <v>44801</v>
       </c>
@@ -31406,7 +31330,7 @@
       <c r="V304" s="2"/>
       <c r="W304" s="8"/>
     </row>
-    <row r="305" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:23" ht="21.9" customHeight="1">
       <c r="A305" s="7">
         <v>44802</v>
       </c>
@@ -31448,7 +31372,7 @@
       <c r="V305" s="2"/>
       <c r="W305" s="8"/>
     </row>
-    <row r="306" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:23" ht="21.9" customHeight="1">
       <c r="A306" s="7">
         <v>44803</v>
       </c>
@@ -31491,7 +31415,7 @@
       <c r="V306" s="2"/>
       <c r="W306" s="8"/>
     </row>
-    <row r="307" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:23" ht="21.9" customHeight="1">
       <c r="A307" s="7">
         <v>44804</v>
       </c>
@@ -31532,7 +31456,7 @@
       <c r="V307" s="2"/>
       <c r="W307" s="8"/>
     </row>
-    <row r="308" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:23" ht="21.9" customHeight="1">
       <c r="A308" s="10">
         <v>44805</v>
       </c>
@@ -31579,7 +31503,7 @@
       <c r="V308" s="13"/>
       <c r="W308" s="12"/>
     </row>
-    <row r="309" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:23" ht="21.9" customHeight="1">
       <c r="A309" s="10">
         <v>44806</v>
       </c>
@@ -31616,7 +31540,7 @@
       <c r="V309" s="13"/>
       <c r="W309" s="12"/>
     </row>
-    <row r="310" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:23" ht="21.9" customHeight="1">
       <c r="A310" s="10">
         <v>44807</v>
       </c>
@@ -31653,7 +31577,7 @@
       <c r="V310" s="13"/>
       <c r="W310" s="12"/>
     </row>
-    <row r="311" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:23" ht="21.9" customHeight="1">
       <c r="A311" s="7">
         <v>44808</v>
       </c>
@@ -31686,7 +31610,7 @@
       <c r="V311" s="2"/>
       <c r="W311" s="8"/>
     </row>
-    <row r="312" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:23" ht="21.9" customHeight="1">
       <c r="A312" s="7">
         <v>44809</v>
       </c>
@@ -31719,7 +31643,7 @@
       <c r="V312" s="2"/>
       <c r="W312" s="8"/>
     </row>
-    <row r="313" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:23" ht="21.9" customHeight="1">
       <c r="A313" s="7">
         <v>44810</v>
       </c>
@@ -31751,7 +31675,7 @@
       <c r="V313" s="2"/>
       <c r="W313" s="8"/>
     </row>
-    <row r="314" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:23" ht="21.9" customHeight="1">
       <c r="A314" s="7">
         <v>44811</v>
       </c>
@@ -31786,7 +31710,7 @@
       <c r="V314" s="2"/>
       <c r="W314" s="8"/>
     </row>
-    <row r="315" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:23" ht="21.9" customHeight="1">
       <c r="A315" s="10">
         <v>44812</v>
       </c>
@@ -31829,7 +31753,7 @@
       <c r="V315" s="13"/>
       <c r="W315" s="12"/>
     </row>
-    <row r="316" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:23" ht="21.9" customHeight="1">
       <c r="A316" s="10">
         <v>44813</v>
       </c>
@@ -31868,7 +31792,7 @@
       <c r="V316" s="13"/>
       <c r="W316" s="12"/>
     </row>
-    <row r="317" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:23" ht="21.9" customHeight="1">
       <c r="A317" s="10">
         <v>44814</v>
       </c>
@@ -31907,7 +31831,7 @@
       <c r="V317" s="13"/>
       <c r="W317" s="12"/>
     </row>
-    <row r="318" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:23" ht="21.9" customHeight="1">
       <c r="A318" s="7">
         <v>44815</v>
       </c>
@@ -31946,7 +31870,7 @@
       <c r="V318" s="2"/>
       <c r="W318" s="8"/>
     </row>
-    <row r="319" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:23" ht="21.9" customHeight="1">
       <c r="A319" s="7">
         <v>44816</v>
       </c>
@@ -31979,7 +31903,7 @@
       <c r="V319" s="2"/>
       <c r="W319" s="8"/>
     </row>
-    <row r="320" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:23" ht="21.9" customHeight="1">
       <c r="A320" s="7">
         <v>44817</v>
       </c>
@@ -32014,7 +31938,7 @@
       <c r="V320" s="2"/>
       <c r="W320" s="8"/>
     </row>
-    <row r="321" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:23" ht="21.9" customHeight="1">
       <c r="A321" s="7">
         <v>44818</v>
       </c>
@@ -32051,7 +31975,7 @@
       <c r="V321" s="2"/>
       <c r="W321" s="8"/>
     </row>
-    <row r="322" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" ht="21.9" customHeight="1">
       <c r="A322" s="10">
         <v>44819</v>
       </c>
@@ -32104,7 +32028,7 @@
       <c r="V322" s="13"/>
       <c r="W322" s="12"/>
     </row>
-    <row r="323" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:23" ht="21.9" customHeight="1">
       <c r="A323" s="10">
         <v>44820</v>
       </c>
@@ -32145,7 +32069,7 @@
       <c r="V323" s="13"/>
       <c r="W323" s="12"/>
     </row>
-    <row r="324" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:23" ht="21.9" customHeight="1">
       <c r="A324" s="10">
         <v>44821</v>
       </c>
@@ -32186,7 +32110,7 @@
       <c r="V324" s="13"/>
       <c r="W324" s="12"/>
     </row>
-    <row r="325" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:23" ht="21.9" customHeight="1">
       <c r="A325" s="7">
         <v>44822</v>
       </c>
@@ -32226,7 +32150,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:23" ht="21.9" customHeight="1">
       <c r="A326" s="7">
         <v>44823</v>
       </c>
@@ -32261,7 +32185,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:23" ht="21.9" customHeight="1">
       <c r="A327" s="7">
         <v>44824</v>
       </c>
@@ -32298,7 +32222,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:23" ht="21.9" customHeight="1">
       <c r="A328" s="7">
         <v>44825</v>
       </c>
@@ -32332,7 +32256,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:23" ht="21.9" customHeight="1">
       <c r="A329" s="10">
         <v>44826</v>
       </c>
@@ -32379,7 +32303,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:23" ht="21.9" customHeight="1">
       <c r="A330" s="10">
         <v>44827</v>
       </c>
@@ -32418,7 +32342,7 @@
       <c r="V330" s="13"/>
       <c r="W330" s="12"/>
     </row>
-    <row r="331" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:23" ht="21.9" customHeight="1">
       <c r="A331" s="10">
         <v>44828</v>
       </c>
@@ -32457,7 +32381,7 @@
       <c r="V331" s="13"/>
       <c r="W331" s="12"/>
     </row>
-    <row r="332" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:23" ht="21.9" customHeight="1">
       <c r="A332" s="7">
         <v>44829</v>
       </c>
@@ -32506,7 +32430,7 @@
       </c>
       <c r="W332" s="8"/>
     </row>
-    <row r="333" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:23" ht="21.9" customHeight="1">
       <c r="A333" s="7">
         <v>44830</v>
       </c>
@@ -32549,7 +32473,7 @@
       </c>
       <c r="W333" s="8"/>
     </row>
-    <row r="334" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:23" ht="21.9" customHeight="1">
       <c r="A334" s="7">
         <v>44831</v>
       </c>
@@ -32592,7 +32516,7 @@
       </c>
       <c r="W334" s="8"/>
     </row>
-    <row r="335" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:23" ht="21.9" customHeight="1">
       <c r="A335" s="7">
         <v>44832</v>
       </c>
@@ -32633,7 +32557,7 @@
       </c>
       <c r="W335" s="8"/>
     </row>
-    <row r="336" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:23" ht="21.9" customHeight="1">
       <c r="A336" s="10">
         <v>44833</v>
       </c>
@@ -32676,7 +32600,7 @@
       </c>
       <c r="W336" s="12"/>
     </row>
-    <row r="337" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:23" ht="21.9" customHeight="1">
       <c r="A337" s="10">
         <v>44834</v>
       </c>
@@ -32713,7 +32637,7 @@
       <c r="V337" s="13"/>
       <c r="W337" s="12"/>
     </row>
-    <row r="338" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:23" ht="21.9" customHeight="1">
       <c r="A338" s="10">
         <v>44835</v>
       </c>
@@ -32750,7 +32674,7 @@
       <c r="V338" s="13"/>
       <c r="W338" s="12"/>
     </row>
-    <row r="339" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:23" ht="21.9" customHeight="1">
       <c r="A339" s="7">
         <v>44836</v>
       </c>
@@ -32799,7 +32723,7 @@
       <c r="V339" s="2"/>
       <c r="W339" s="8"/>
     </row>
-    <row r="340" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:23" ht="21.9" customHeight="1">
       <c r="A340" s="7">
         <v>44837</v>
       </c>
@@ -32833,7 +32757,7 @@
       <c r="V340" s="2"/>
       <c r="W340" s="8"/>
     </row>
-    <row r="341" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:23" ht="21.9" customHeight="1">
       <c r="A341" s="7">
         <v>44838</v>
       </c>
@@ -32871,7 +32795,7 @@
       <c r="V341" s="2"/>
       <c r="W341" s="8"/>
     </row>
-    <row r="342" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:23" ht="21.9" customHeight="1">
       <c r="A342" s="7">
         <v>44839</v>
       </c>
@@ -32910,7 +32834,7 @@
       <c r="V342" s="2"/>
       <c r="W342" s="8"/>
     </row>
-    <row r="343" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" ht="21.9" customHeight="1">
       <c r="A343" s="10">
         <v>44840</v>
       </c>
@@ -32949,7 +32873,7 @@
       <c r="V343" s="13"/>
       <c r="W343" s="12"/>
     </row>
-    <row r="344" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" ht="21.9" customHeight="1">
       <c r="A344" s="10">
         <v>44841</v>
       </c>
@@ -32986,7 +32910,7 @@
       <c r="V344" s="13"/>
       <c r="W344" s="12"/>
     </row>
-    <row r="345" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:23" ht="21.9" customHeight="1">
       <c r="A345" s="10">
         <v>44842</v>
       </c>
@@ -33023,7 +32947,7 @@
       <c r="V345" s="13"/>
       <c r="W345" s="12"/>
     </row>
-    <row r="346" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:23" ht="21.9" customHeight="1">
       <c r="A346" s="7">
         <v>44843</v>
       </c>
@@ -33074,7 +32998,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" ht="21.9" customHeight="1">
       <c r="A347" s="7">
         <v>44844</v>
       </c>
@@ -33117,7 +33041,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:23" ht="21.9" customHeight="1">
       <c r="A348" s="7">
         <v>44845</v>
       </c>
@@ -33166,7 +33090,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:23" ht="21.9" customHeight="1">
       <c r="A349" s="7">
         <v>44846</v>
       </c>
@@ -33211,7 +33135,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:23" ht="21.9" customHeight="1">
       <c r="A350" s="10">
         <v>44847</v>
       </c>
@@ -33258,7 +33182,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:23" ht="21.9" customHeight="1">
       <c r="A351" s="10">
         <v>44848</v>
       </c>
@@ -33297,7 +33221,7 @@
       <c r="V351" s="13"/>
       <c r="W351" s="12"/>
     </row>
-    <row r="352" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" ht="21.9" customHeight="1">
       <c r="A352" s="10">
         <v>44849</v>
       </c>
@@ -33336,7 +33260,7 @@
       <c r="V352" s="13"/>
       <c r="W352" s="12"/>
     </row>
-    <row r="353" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:23" ht="21.9" customHeight="1">
       <c r="A353" s="7">
         <v>44850</v>
       </c>
@@ -33381,7 +33305,7 @@
       <c r="V353" s="2"/>
       <c r="W353" s="8"/>
     </row>
-    <row r="354" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" ht="21.9" customHeight="1">
       <c r="A354" s="7">
         <v>44851</v>
       </c>
@@ -33418,7 +33342,7 @@
       <c r="V354" s="2"/>
       <c r="W354" s="8"/>
     </row>
-    <row r="355" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" ht="21.9" customHeight="1">
       <c r="A355" s="7">
         <v>44852</v>
       </c>
@@ -33452,7 +33376,7 @@
       <c r="V355" s="2"/>
       <c r="W355" s="8"/>
     </row>
-    <row r="356" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:23" ht="21.9" customHeight="1">
       <c r="A356" s="7">
         <v>44853</v>
       </c>
@@ -33485,7 +33409,7 @@
       <c r="V356" s="2"/>
       <c r="W356" s="8"/>
     </row>
-    <row r="357" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:23" ht="21.9" customHeight="1">
       <c r="A357" s="10">
         <v>44854</v>
       </c>
@@ -33532,7 +33456,7 @@
       <c r="V357" s="13"/>
       <c r="W357" s="12"/>
     </row>
-    <row r="358" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:23" ht="21.9" customHeight="1">
       <c r="A358" s="10">
         <v>44855</v>
       </c>
@@ -33571,7 +33495,7 @@
       <c r="V358" s="13"/>
       <c r="W358" s="12"/>
     </row>
-    <row r="359" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:23" ht="21.9" customHeight="1">
       <c r="A359" s="10">
         <v>44856</v>
       </c>
@@ -33610,7 +33534,7 @@
       <c r="V359" s="13"/>
       <c r="W359" s="12"/>
     </row>
-    <row r="360" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:23" ht="21.9" customHeight="1">
       <c r="A360" s="7">
         <v>44857</v>
       </c>
@@ -33643,7 +33567,7 @@
       <c r="V360" s="2"/>
       <c r="W360" s="8"/>
     </row>
-    <row r="361" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:23" ht="21.9" customHeight="1">
       <c r="A361" s="7">
         <v>44858</v>
       </c>
@@ -33674,7 +33598,7 @@
       <c r="V361" s="2"/>
       <c r="W361" s="8"/>
     </row>
-    <row r="362" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" ht="21.9" customHeight="1">
       <c r="A362" s="7">
         <v>44859</v>
       </c>
@@ -33702,7 +33626,7 @@
       <c r="V362" s="2"/>
       <c r="W362" s="8"/>
     </row>
-    <row r="363" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" ht="21.9" customHeight="1">
       <c r="A363" s="7">
         <v>44860</v>
       </c>
@@ -33731,7 +33655,7 @@
       <c r="V363" s="2"/>
       <c r="W363" s="8"/>
     </row>
-    <row r="364" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:23" ht="21.9" customHeight="1">
       <c r="A364" s="10">
         <v>44861</v>
       </c>
@@ -33768,7 +33692,7 @@
       <c r="V364" s="13"/>
       <c r="W364" s="12"/>
     </row>
-    <row r="365" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:23" ht="21.9" customHeight="1">
       <c r="A365" s="10">
         <v>44862</v>
       </c>
@@ -33801,7 +33725,7 @@
       <c r="V365" s="13"/>
       <c r="W365" s="12"/>
     </row>
-    <row r="366" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:23" ht="21.9" customHeight="1">
       <c r="A366" s="10">
         <v>44863</v>
       </c>
@@ -33834,7 +33758,7 @@
       <c r="V366" s="13"/>
       <c r="W366" s="12"/>
     </row>
-    <row r="367" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" ht="21.9" customHeight="1">
       <c r="A367" s="7">
         <v>44864</v>
       </c>
@@ -33871,7 +33795,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:23" ht="21.9" customHeight="1">
       <c r="A368" s="7">
         <v>44865</v>
       </c>
@@ -33908,7 +33832,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:23" ht="21.9" customHeight="1">
       <c r="A369" s="7">
         <v>44866</v>
       </c>
@@ -33944,7 +33868,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:23" ht="21.9" customHeight="1">
       <c r="A370" s="7">
         <v>44867</v>
       </c>
@@ -33977,7 +33901,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:23" ht="21.9" customHeight="1">
       <c r="A371" s="10">
         <v>44868</v>
       </c>
@@ -34020,7 +33944,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:23" ht="21.9" customHeight="1">
       <c r="A372" s="10">
         <v>44869</v>
       </c>
@@ -34059,7 +33983,7 @@
       <c r="V372" s="13"/>
       <c r="W372" s="12"/>
     </row>
-    <row r="373" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:23" ht="21.9" customHeight="1">
       <c r="A373" s="10">
         <v>44870</v>
       </c>
@@ -34098,7 +34022,7 @@
       <c r="V373" s="13"/>
       <c r="W373" s="12"/>
     </row>
-    <row r="374" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:23" ht="21.9" customHeight="1">
       <c r="A374" s="7">
         <v>44871</v>
       </c>
@@ -34131,7 +34055,7 @@
       <c r="V374" s="2"/>
       <c r="W374" s="8"/>
     </row>
-    <row r="375" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:23" ht="21.9" customHeight="1">
       <c r="A375" s="7">
         <v>44872</v>
       </c>
@@ -34160,7 +34084,7 @@
       <c r="V375" s="2"/>
       <c r="W375" s="8"/>
     </row>
-    <row r="376" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:23" ht="21.9" customHeight="1">
       <c r="A376" s="7">
         <v>44873</v>
       </c>
@@ -34188,7 +34112,7 @@
       <c r="V376" s="2"/>
       <c r="W376" s="8"/>
     </row>
-    <row r="377" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:23" ht="21.9" customHeight="1">
       <c r="A377" s="7">
         <v>44874</v>
       </c>
@@ -34217,7 +34141,7 @@
       <c r="V377" s="2"/>
       <c r="W377" s="8"/>
     </row>
-    <row r="378" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:23" ht="21.9" customHeight="1">
       <c r="A378" s="10">
         <v>44875</v>
       </c>
@@ -34250,7 +34174,7 @@
       <c r="V378" s="13"/>
       <c r="W378" s="12"/>
     </row>
-    <row r="379" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" ht="21.9" customHeight="1">
       <c r="A379" s="10">
         <v>44876</v>
       </c>
@@ -34281,7 +34205,7 @@
       <c r="V379" s="13"/>
       <c r="W379" s="12"/>
     </row>
-    <row r="380" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:23" ht="21.9" customHeight="1">
       <c r="A380" s="10">
         <v>44877</v>
       </c>
@@ -34312,7 +34236,7 @@
       <c r="V380" s="13"/>
       <c r="W380" s="12"/>
     </row>
-    <row r="381" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:23" ht="21.9" customHeight="1">
       <c r="A381" s="7">
         <v>44878</v>
       </c>
@@ -34343,7 +34267,7 @@
       <c r="V381" s="2"/>
       <c r="W381" s="8"/>
     </row>
-    <row r="382" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:23" ht="21.9" customHeight="1">
       <c r="A382" s="7">
         <v>44879</v>
       </c>
@@ -34374,7 +34298,7 @@
       <c r="V382" s="2"/>
       <c r="W382" s="8"/>
     </row>
-    <row r="383" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:23" ht="21.9" customHeight="1">
       <c r="A383" s="7">
         <v>44880</v>
       </c>
@@ -34404,7 +34328,7 @@
       <c r="V383" s="2"/>
       <c r="W383" s="8"/>
     </row>
-    <row r="384" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:23" ht="21.9" customHeight="1">
       <c r="A384" s="7">
         <v>44881</v>
       </c>
@@ -34433,7 +34357,7 @@
       <c r="V384" s="2"/>
       <c r="W384" s="8"/>
     </row>
-    <row r="385" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:23" ht="21.9" customHeight="1">
       <c r="A385" s="10">
         <v>44882</v>
       </c>
@@ -34464,7 +34388,7 @@
       <c r="V385" s="13"/>
       <c r="W385" s="12"/>
     </row>
-    <row r="386" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:23" ht="21.9" customHeight="1">
       <c r="A386" s="10">
         <v>44883</v>
       </c>
@@ -34493,7 +34417,7 @@
       <c r="V386" s="13"/>
       <c r="W386" s="12"/>
     </row>
-    <row r="387" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:23" ht="21.9" customHeight="1">
       <c r="A387" s="10">
         <v>44884</v>
       </c>
@@ -34522,7 +34446,7 @@
       <c r="V387" s="13"/>
       <c r="W387" s="12"/>
     </row>
-    <row r="388" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:23" ht="21.9" customHeight="1">
       <c r="A388" s="7">
         <v>44885</v>
       </c>
@@ -34557,7 +34481,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:23" ht="21.9" customHeight="1">
       <c r="A389" s="7">
         <v>44886</v>
       </c>
@@ -34588,7 +34512,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:23" ht="21.9" customHeight="1">
       <c r="A390" s="7">
         <v>44887</v>
       </c>
@@ -34618,7 +34542,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:23" ht="21.9" customHeight="1">
       <c r="A391" s="7">
         <v>44888</v>
       </c>
@@ -34651,7 +34575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:23" ht="21.9" customHeight="1">
       <c r="A392" s="10">
         <v>44889</v>
       </c>
@@ -34682,7 +34606,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:23" ht="21.9" customHeight="1">
       <c r="A393" s="10">
         <v>44890</v>
       </c>
@@ -34711,7 +34635,7 @@
       <c r="V393" s="13"/>
       <c r="W393" s="12"/>
     </row>
-    <row r="394" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:23" ht="21.9" customHeight="1">
       <c r="A394" s="10">
         <v>44891</v>
       </c>
@@ -34740,7 +34664,7 @@
       <c r="V394" s="13"/>
       <c r="W394" s="12"/>
     </row>
-    <row r="395" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:23" ht="21.9" customHeight="1">
       <c r="A395" s="7">
         <v>44892</v>
       </c>
@@ -34771,7 +34695,7 @@
       <c r="V395" s="2"/>
       <c r="W395" s="8"/>
     </row>
-    <row r="396" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:23" ht="21.9" customHeight="1">
       <c r="A396" s="7">
         <v>44893</v>
       </c>
@@ -34800,7 +34724,7 @@
       <c r="V396" s="2"/>
       <c r="W396" s="8"/>
     </row>
-    <row r="397" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:23" ht="21.9" customHeight="1">
       <c r="A397" s="7">
         <v>44894</v>
       </c>
@@ -34828,7 +34752,7 @@
       <c r="V397" s="2"/>
       <c r="W397" s="8"/>
     </row>
-    <row r="398" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:23" ht="21.9" customHeight="1">
       <c r="A398" s="7">
         <v>44895</v>
       </c>
@@ -34857,7 +34781,7 @@
       <c r="V398" s="2"/>
       <c r="W398" s="8"/>
     </row>
-    <row r="399" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:23" ht="21.9" customHeight="1">
       <c r="A399" s="10">
         <v>44896</v>
       </c>
@@ -34886,7 +34810,7 @@
       <c r="V399" s="13"/>
       <c r="W399" s="12"/>
     </row>
-    <row r="400" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:23" ht="21.9" customHeight="1">
       <c r="A400" s="10">
         <v>44897</v>
       </c>
@@ -34915,7 +34839,7 @@
       <c r="V400" s="13"/>
       <c r="W400" s="12"/>
     </row>
-    <row r="401" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:23" ht="21.9" customHeight="1">
       <c r="A401" s="10">
         <v>44898</v>
       </c>
@@ -34944,7 +34868,7 @@
       <c r="V401" s="13"/>
       <c r="W401" s="12"/>
     </row>
-    <row r="402" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:23" ht="21.9" customHeight="1">
       <c r="A402" s="7">
         <v>44899</v>
       </c>
@@ -34975,7 +34899,7 @@
       <c r="V402" s="2"/>
       <c r="W402" s="8"/>
     </row>
-    <row r="403" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:23" ht="21.9" customHeight="1">
       <c r="A403" s="7">
         <v>44900</v>
       </c>
@@ -35004,7 +34928,7 @@
       <c r="V403" s="2"/>
       <c r="W403" s="8"/>
     </row>
-    <row r="404" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" ht="21.9" customHeight="1">
       <c r="A404" s="7">
         <v>44901</v>
       </c>
@@ -35032,7 +34956,7 @@
       <c r="V404" s="2"/>
       <c r="W404" s="8"/>
     </row>
-    <row r="405" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:23" ht="21.9" customHeight="1">
       <c r="A405" s="7">
         <v>44902</v>
       </c>
@@ -35061,7 +34985,7 @@
       <c r="V405" s="2"/>
       <c r="W405" s="8"/>
     </row>
-    <row r="406" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:23" ht="21.9" customHeight="1">
       <c r="A406" s="10">
         <v>44903</v>
       </c>
@@ -35092,7 +35016,7 @@
       <c r="V406" s="13"/>
       <c r="W406" s="12"/>
     </row>
-    <row r="407" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:23" ht="21.9" customHeight="1">
       <c r="A407" s="10">
         <v>44904</v>
       </c>
@@ -35121,7 +35045,7 @@
       <c r="V407" s="13"/>
       <c r="W407" s="12"/>
     </row>
-    <row r="408" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:23" ht="21.9" customHeight="1">
       <c r="A408" s="10">
         <v>44905</v>
       </c>
@@ -35150,7 +35074,7 @@
       <c r="V408" s="13"/>
       <c r="W408" s="12"/>
     </row>
-    <row r="409" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:23" ht="21.9" customHeight="1">
       <c r="A409" s="7">
         <v>44906</v>
       </c>
@@ -35181,7 +35105,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:23" ht="21.9" customHeight="1">
       <c r="A410" s="7">
         <v>44907</v>
       </c>
@@ -35212,7 +35136,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:23" ht="21.9" customHeight="1">
       <c r="A411" s="7">
         <v>44908</v>
       </c>
@@ -35242,7 +35166,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:23" ht="21.9" customHeight="1">
       <c r="A412" s="7">
         <v>44909</v>
       </c>
@@ -35273,7 +35197,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:23" ht="21.9" customHeight="1">
       <c r="A413" s="10">
         <v>44910</v>
       </c>
@@ -35306,7 +35230,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:23" ht="21.9" customHeight="1">
       <c r="A414" s="10">
         <v>44911</v>
       </c>
@@ -35335,7 +35259,7 @@
       <c r="V414" s="13"/>
       <c r="W414" s="12"/>
     </row>
-    <row r="415" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:23" ht="21.9" customHeight="1">
       <c r="A415" s="10">
         <v>44912</v>
       </c>
@@ -35364,7 +35288,7 @@
       <c r="V415" s="13"/>
       <c r="W415" s="12"/>
     </row>
-    <row r="416" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:23" ht="21.9" customHeight="1">
       <c r="A416" s="7">
         <v>44913</v>
       </c>
@@ -35401,7 +35325,7 @@
       <c r="V416" s="2"/>
       <c r="W416" s="8"/>
     </row>
-    <row r="417" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:23" ht="21.9" customHeight="1">
       <c r="A417" s="7">
         <v>44914</v>
       </c>
@@ -35434,7 +35358,7 @@
       <c r="V417" s="2"/>
       <c r="W417" s="8"/>
     </row>
-    <row r="418" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:23" ht="21.9" customHeight="1">
       <c r="A418" s="7">
         <v>44915</v>
       </c>
@@ -35470,7 +35394,7 @@
       <c r="V418" s="2"/>
       <c r="W418" s="8"/>
     </row>
-    <row r="419" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:23" ht="21.9" customHeight="1">
       <c r="A419" s="7">
         <v>44916</v>
       </c>
@@ -35507,7 +35431,7 @@
       <c r="V419" s="2"/>
       <c r="W419" s="8"/>
     </row>
-    <row r="420" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:23" ht="21.9" customHeight="1">
       <c r="A420" s="10">
         <v>44917</v>
       </c>
@@ -35542,7 +35466,7 @@
       <c r="V420" s="13"/>
       <c r="W420" s="12"/>
     </row>
-    <row r="421" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:23" ht="21.9" customHeight="1">
       <c r="A421" s="10">
         <v>44918</v>
       </c>
@@ -35575,7 +35499,7 @@
       <c r="V421" s="13"/>
       <c r="W421" s="12"/>
     </row>
-    <row r="422" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:23" ht="21.9" customHeight="1">
       <c r="A422" s="10">
         <v>44919</v>
       </c>
@@ -35608,7 +35532,7 @@
       <c r="V422" s="13"/>
       <c r="W422" s="12"/>
     </row>
-    <row r="423" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:23" ht="21.9" customHeight="1">
       <c r="A423" s="7">
         <v>44920</v>
       </c>
@@ -35641,7 +35565,7 @@
       <c r="V423" s="2"/>
       <c r="W423" s="8"/>
     </row>
-    <row r="424" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:23" ht="21.9" customHeight="1">
       <c r="A424" s="7">
         <v>44921</v>
       </c>
@@ -35674,7 +35598,7 @@
       <c r="V424" s="2"/>
       <c r="W424" s="8"/>
     </row>
-    <row r="425" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:23" ht="21.9" customHeight="1">
       <c r="A425" s="7">
         <v>44922</v>
       </c>
@@ -35702,7 +35626,7 @@
       <c r="V425" s="2"/>
       <c r="W425" s="8"/>
     </row>
-    <row r="426" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:23" ht="21.9" customHeight="1">
       <c r="A426" s="7">
         <v>44923</v>
       </c>
@@ -35733,7 +35657,7 @@
       <c r="V426" s="2"/>
       <c r="W426" s="8"/>
     </row>
-    <row r="427" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:23" ht="21.9" customHeight="1">
       <c r="A427" s="10">
         <v>44924</v>
       </c>
@@ -35766,7 +35690,7 @@
       <c r="V427" s="13"/>
       <c r="W427" s="12"/>
     </row>
-    <row r="428" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:23" ht="21.9" customHeight="1">
       <c r="A428" s="10">
         <v>44925</v>
       </c>
@@ -35795,7 +35719,7 @@
       <c r="V428" s="13"/>
       <c r="W428" s="12"/>
     </row>
-    <row r="429" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:23" ht="21.9" customHeight="1">
       <c r="A429" s="10">
         <v>44926</v>
       </c>
@@ -35824,7 +35748,7 @@
       <c r="V429" s="13"/>
       <c r="W429" s="12"/>
     </row>
-    <row r="430" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:23" ht="21.9" customHeight="1">
       <c r="A430" s="7">
         <v>44927</v>
       </c>
@@ -35855,7 +35779,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:23" ht="21.9" customHeight="1">
       <c r="A431" s="7">
         <v>44928</v>
       </c>
@@ -35886,7 +35810,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:23" ht="21.9" customHeight="1">
       <c r="A432" s="7">
         <v>44929</v>
       </c>
@@ -35916,7 +35840,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:23" ht="21.9" customHeight="1">
       <c r="A433" s="7">
         <v>44930</v>
       </c>
@@ -35947,7 +35871,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:23" ht="21.9" customHeight="1">
       <c r="A434" s="10">
         <v>44931</v>
       </c>
@@ -35978,7 +35902,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:23" ht="21.9" customHeight="1">
       <c r="A435" s="10">
         <v>44932</v>
       </c>
@@ -36007,7 +35931,7 @@
       <c r="V435" s="13"/>
       <c r="W435" s="12"/>
     </row>
-    <row r="436" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:23" ht="21.9" customHeight="1">
       <c r="A436" s="10">
         <v>44933</v>
       </c>
@@ -36036,7 +35960,7 @@
       <c r="V436" s="13"/>
       <c r="W436" s="12"/>
     </row>
-    <row r="437" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:23" ht="21.9" customHeight="1">
       <c r="A437" s="7">
         <v>44934</v>
       </c>
@@ -36065,7 +35989,7 @@
       <c r="V437" s="2"/>
       <c r="W437" s="8"/>
     </row>
-    <row r="438" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:23" ht="21.9" customHeight="1">
       <c r="A438" s="7">
         <v>44935</v>
       </c>
@@ -36094,7 +36018,7 @@
       <c r="V438" s="2"/>
       <c r="W438" s="8"/>
     </row>
-    <row r="439" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:23" ht="21.9" customHeight="1">
       <c r="A439" s="7">
         <v>44936</v>
       </c>
@@ -36122,7 +36046,7 @@
       <c r="V439" s="2"/>
       <c r="W439" s="8"/>
     </row>
-    <row r="440" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:23" ht="21.9" customHeight="1">
       <c r="A440" s="7">
         <v>44937</v>
       </c>
@@ -36151,7 +36075,7 @@
       <c r="V440" s="2"/>
       <c r="W440" s="8"/>
     </row>
-    <row r="441" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:23" ht="21.9" customHeight="1">
       <c r="A441" s="10">
         <v>44938</v>
       </c>
@@ -36180,7 +36104,7 @@
       <c r="V441" s="13"/>
       <c r="W441" s="12"/>
     </row>
-    <row r="442" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:23" ht="21.9" customHeight="1">
       <c r="A442" s="10">
         <v>45002</v>
       </c>
@@ -36209,7 +36133,7 @@
       <c r="V442" s="13"/>
       <c r="W442" s="12"/>
     </row>
-    <row r="443" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:23" ht="21.9" customHeight="1">
       <c r="A443" s="10">
         <v>45003</v>
       </c>
@@ -36238,7 +36162,7 @@
       <c r="V443" s="13"/>
       <c r="W443" s="12"/>
     </row>
-    <row r="444" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:23" ht="21.9" customHeight="1">
       <c r="A444" s="7">
         <v>45004</v>
       </c>
@@ -36267,7 +36191,7 @@
       <c r="V444" s="2"/>
       <c r="W444" s="8"/>
     </row>
-    <row r="445" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:23" ht="21.9" customHeight="1">
       <c r="A445" s="7">
         <v>45005</v>
       </c>
@@ -36296,7 +36220,7 @@
       <c r="V445" s="2"/>
       <c r="W445" s="8"/>
     </row>
-    <row r="446" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:23" ht="21.9" customHeight="1">
       <c r="A446" s="7">
         <v>45006</v>
       </c>
@@ -36324,7 +36248,7 @@
       <c r="V446" s="2"/>
       <c r="W446" s="8"/>
     </row>
-    <row r="447" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:23" ht="21.9" customHeight="1">
       <c r="A447" s="7">
         <v>45007</v>
       </c>
@@ -36353,7 +36277,7 @@
       <c r="V447" s="2"/>
       <c r="W447" s="8"/>
     </row>
-    <row r="448" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:23" ht="21.9" customHeight="1">
       <c r="A448" s="10">
         <v>45008</v>
       </c>
@@ -36382,7 +36306,7 @@
       <c r="V448" s="13"/>
       <c r="W448" s="12"/>
     </row>
-    <row r="449" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:23" ht="21.9" customHeight="1">
       <c r="A449" s="10">
         <v>45009</v>
       </c>
@@ -36411,7 +36335,7 @@
       <c r="V449" s="13"/>
       <c r="W449" s="12"/>
     </row>
-    <row r="450" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:23" ht="21.9" customHeight="1">
       <c r="A450" s="10">
         <v>45010</v>
       </c>
@@ -36440,7 +36364,7 @@
       <c r="V450" s="13"/>
       <c r="W450" s="12"/>
     </row>
-    <row r="451" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:23" ht="21.9" customHeight="1">
       <c r="A451" s="7">
         <v>45011</v>
       </c>
@@ -36469,7 +36393,7 @@
       <c r="V451" s="2"/>
       <c r="W451" s="8"/>
     </row>
-    <row r="452" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:23" ht="21.9" customHeight="1">
       <c r="A452" s="7">
         <v>45012</v>
       </c>
@@ -36498,7 +36422,7 @@
       <c r="V452" s="2"/>
       <c r="W452" s="8"/>
     </row>
-    <row r="453" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:23" ht="21.9" customHeight="1">
       <c r="A453" s="7">
         <v>45013</v>
       </c>
@@ -36526,7 +36450,7 @@
       <c r="V453" s="2"/>
       <c r="W453" s="8"/>
     </row>
-    <row r="454" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:23" ht="21.9" customHeight="1">
       <c r="A454" s="7">
         <v>45014</v>
       </c>
@@ -36555,7 +36479,7 @@
       <c r="V454" s="2"/>
       <c r="W454" s="8"/>
     </row>
-    <row r="455" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:23" ht="21.9" customHeight="1">
       <c r="A455" s="10">
         <v>45015</v>
       </c>
@@ -36584,7 +36508,7 @@
       <c r="V455" s="13"/>
       <c r="W455" s="12"/>
     </row>
-    <row r="456" spans="1:23" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:23" ht="21.9" customHeight="1">
       <c r="A456" s="10">
         <v>45016</v>
       </c>
@@ -42767,7 +42691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -42777,24 +42701,24 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:12" ht="18">
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
       <c r="K3" s="73"/>
     </row>
-    <row r="4" spans="4:12" ht="52.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:12" ht="51.6">
       <c r="G4" s="50"/>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
       <c r="J4" s="73"/>
       <c r="K4" s="73"/>
     </row>
-    <row r="5" spans="4:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:12" ht="31.2">
       <c r="G5" s="62"/>
       <c r="H5" s="62" t="s">
         <v>138</v>
@@ -42803,7 +42727,7 @@
       <c r="J5" s="73"/>
       <c r="K5" s="73"/>
     </row>
-    <row r="7" spans="4:12" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:12" ht="55.8">
       <c r="D7" s="48"/>
       <c r="E7" s="49" t="s">
         <v>303</v>
@@ -42828,7 +42752,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="39" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:12" ht="55.8">
       <c r="D8" s="19" t="s">
         <v>139</v>
       </c>
@@ -42857,7 +42781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="59.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" ht="126.6" thickBot="1">
       <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
@@ -42886,7 +42810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="4:12" ht="59.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" ht="126.6" thickBot="1">
       <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
@@ -42907,7 +42831,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" ht="19.2" thickBot="1">
       <c r="D11" s="26" t="s">
         <v>142</v>
       </c>
@@ -42926,7 +42850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" ht="19.2" thickBot="1">
       <c r="D12" s="26" t="s">
         <v>36</v>
       </c>
@@ -42943,7 +42867,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" ht="19.2" thickBot="1">
       <c r="D13" s="26" t="s">
         <v>312</v>
       </c>
@@ -42956,7 +42880,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" ht="37.799999999999997" thickBot="1">
       <c r="D14" s="26" t="s">
         <v>218</v>
       </c>
@@ -42971,7 +42895,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" ht="19.2" thickBot="1">
       <c r="D15" s="26" t="s">
         <v>44</v>
       </c>
@@ -42994,7 +42918,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" ht="36.6" thickBot="1">
       <c r="D16" s="26" t="s">
         <v>61</v>
       </c>
@@ -43009,7 +42933,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" ht="54.6" thickBot="1">
       <c r="D17" s="26" t="s">
         <v>143</v>
       </c>
@@ -43026,7 +42950,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="4:12" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:12" ht="54">
       <c r="D18" s="26" t="s">
         <v>144</v>
       </c>
@@ -43045,7 +42969,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12">
       <c r="H19" s="72"/>
     </row>
   </sheetData>
@@ -43055,7 +42979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -43065,24 +42989,24 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:12" ht="18">
       <c r="I3" s="71"/>
       <c r="J3" s="71"/>
       <c r="K3" s="71"/>
     </row>
-    <row r="4" spans="4:12" ht="52.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:12" ht="51.6">
       <c r="G4" s="50"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
       <c r="J4" s="71"/>
       <c r="K4" s="71"/>
     </row>
-    <row r="5" spans="4:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:12" ht="31.2">
       <c r="G5" s="62"/>
       <c r="H5" s="62" t="s">
         <v>138</v>
@@ -43091,7 +43015,7 @@
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
     </row>
-    <row r="7" spans="4:12" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:12" ht="55.8">
       <c r="D7" s="48"/>
       <c r="E7" s="49" t="s">
         <v>281</v>
@@ -43116,7 +43040,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="39" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:12" ht="55.8">
       <c r="D8" s="19" t="s">
         <v>139</v>
       </c>
@@ -43145,7 +43069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="59.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" ht="126.6" thickBot="1">
       <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
@@ -43174,7 +43098,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="4:12" ht="59.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" ht="126.6" thickBot="1">
       <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
@@ -43195,7 +43119,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" ht="19.2" thickBot="1">
       <c r="D11" s="26" t="s">
         <v>142</v>
       </c>
@@ -43214,7 +43138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" ht="37.799999999999997" thickBot="1">
       <c r="D12" s="26" t="s">
         <v>218</v>
       </c>
@@ -43233,7 +43157,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="4:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" ht="54.6" thickBot="1">
       <c r="D13" s="26" t="s">
         <v>36</v>
       </c>
@@ -43256,7 +43180,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" ht="37.799999999999997" thickBot="1">
       <c r="D14" s="26" t="s">
         <v>47</v>
       </c>
@@ -43273,7 +43197,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" ht="19.2" thickBot="1">
       <c r="D15" s="26" t="s">
         <v>227</v>
       </c>
@@ -43288,7 +43212,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" ht="54.6" thickBot="1">
       <c r="D16" s="26" t="s">
         <v>44</v>
       </c>
@@ -43311,7 +43235,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="4:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" ht="36.6" thickBot="1">
       <c r="D17" s="26" t="s">
         <v>61</v>
       </c>
@@ -43326,7 +43250,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="4:12" ht="59.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" ht="108.6" thickBot="1">
       <c r="D18" s="26" t="s">
         <v>143</v>
       </c>
@@ -43345,7 +43269,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="4:12" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:12" ht="54">
       <c r="D19" s="26" t="s">
         <v>144</v>
       </c>
@@ -43362,7 +43286,7 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12">
       <c r="H20" s="72"/>
     </row>
   </sheetData>
@@ -43372,20 +43296,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="גיליון4"/>
-  <dimension ref="H9:O23"/>
+  <dimension ref="H9:O28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F35" sqref="F34:F35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="15" width="13.625" customWidth="1"/>
+    <col min="8" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:15" ht="18">
       <c r="H9" s="27"/>
       <c r="I9" s="22"/>
       <c r="J9" s="27"/>
@@ -43395,7 +43319,7 @@
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
     </row>
-    <row r="10" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:15" ht="18">
       <c r="H10" s="27"/>
       <c r="I10" s="22"/>
       <c r="J10" s="27"/>
@@ -43405,7 +43329,7 @@
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
     </row>
-    <row r="11" spans="8:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:15" ht="18.600000000000001" thickBot="1">
       <c r="H11" s="27"/>
       <c r="I11" s="23"/>
       <c r="J11" s="27"/>
@@ -43415,7 +43339,7 @@
       <c r="N11" s="80"/>
       <c r="O11" s="27"/>
     </row>
-    <row r="12" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:15" ht="18.600000000000001">
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -43425,7 +43349,7 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:15" ht="18.600000000000001">
       <c r="H13" s="19" t="s">
         <v>139</v>
       </c>
@@ -43437,7 +43361,7 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:15" ht="18.600000000000001">
       <c r="H14" s="19" t="s">
         <v>20</v>
       </c>
@@ -43449,7 +43373,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:15" ht="18.600000000000001">
       <c r="H15" s="19" t="s">
         <v>18</v>
       </c>
@@ -43461,7 +43385,7 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:15" ht="37.200000000000003">
       <c r="H16" s="17" t="s">
         <v>17</v>
       </c>
@@ -43473,7 +43397,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:15" ht="37.200000000000003">
       <c r="H17" s="17" t="s">
         <v>146</v>
       </c>
@@ -43485,7 +43409,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:15" ht="18.600000000000001">
       <c r="H18" s="26" t="s">
         <v>142</v>
       </c>
@@ -43497,7 +43421,7 @@
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:15" ht="18.600000000000001">
       <c r="H19" s="26" t="s">
         <v>49</v>
       </c>
@@ -43509,9 +43433,9 @@
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:15" ht="37.200000000000003">
       <c r="H20" s="26" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -43521,9 +43445,9 @@
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:15" ht="18.600000000000001">
       <c r="H21" s="26" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -43533,9 +43457,9 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:15" ht="37.200000000000003">
       <c r="H22" s="26" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -43545,9 +43469,9 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="8:15" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:15" ht="18.600000000000001">
       <c r="H23" s="26" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -43557,18 +43481,77 @@
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
     </row>
+    <row r="24" spans="8:15" ht="18.600000000000001">
+      <c r="H24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="8:15" ht="37.200000000000003">
+      <c r="H25" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="8:15" ht="18.600000000000001">
+      <c r="H26" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="8:15" ht="18.600000000000001">
+      <c r="H27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="8:15" ht="18.600000000000001">
+      <c r="H28" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="גיליון5"/>
   <dimension ref="A11:P16"/>
   <sheetViews>
@@ -43576,14 +43559,14 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="8" width="13.625" hidden="1" customWidth="1"/>
-    <col min="9" max="12" width="13.625" customWidth="1"/>
+    <col min="1" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="18">
       <c r="A11" s="28" t="s">
         <v>147</v>
       </c>
@@ -43633,7 +43616,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="126" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="124.8">
       <c r="A12" s="29" t="s">
         <v>148</v>
       </c>
@@ -43671,7 +43654,7 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="111.75" customHeight="1">
       <c r="A13" s="29" t="s">
         <v>158</v>
       </c>
@@ -43705,7 +43688,7 @@
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="111.75" customHeight="1">
       <c r="A14" s="29" t="s">
         <v>166</v>
       </c>
@@ -43739,7 +43722,7 @@
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="128.25" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>174</v>
       </c>
@@ -43773,7 +43756,7 @@
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="62.25" customHeight="1">
       <c r="A16" s="29" t="s">
         <v>239</v>
       </c>
@@ -43827,7 +43810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="גיליון6"/>
   <dimension ref="A8:P22"/>
   <sheetViews>
@@ -43835,22 +43818,22 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="6" width="13.625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="1" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="18">
       <c r="A8" s="33" t="s">
         <v>145</v>
       </c>
@@ -43900,7 +43883,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="62.4">
       <c r="A9" s="30" t="s">
         <v>183</v>
       </c>
@@ -43944,7 +43927,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="62.4">
       <c r="A10" s="31" t="s">
         <v>191</v>
       </c>
@@ -43982,7 +43965,7 @@
       </c>
       <c r="P10" s="31"/>
     </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="62.4">
       <c r="A11" s="31" t="s">
         <v>354</v>
       </c>
@@ -44014,7 +43997,7 @@
       </c>
       <c r="P11" s="31"/>
     </row>
-    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="46.8">
       <c r="A12" s="31"/>
       <c r="B12" s="30" t="s">
         <v>259</v>
@@ -44040,7 +44023,7 @@
       </c>
       <c r="P12" s="31"/>
     </row>
-    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="46.8">
       <c r="A13" s="31"/>
       <c r="B13" s="30" t="s">
         <v>300</v>
@@ -44064,7 +44047,7 @@
       </c>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="46.8">
       <c r="A14" s="31"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -44086,7 +44069,7 @@
       </c>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="62.4">
       <c r="A15" s="31"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -44108,7 +44091,7 @@
       </c>
       <c r="P15" s="31"/>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="31"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -44126,7 +44109,7 @@
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="31"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -44144,7 +44127,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.6">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -44162,7 +44145,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -44180,7 +44163,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -44198,7 +44181,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -44216,7 +44199,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.6">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -44243,6 +44226,11 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9a7b6b9d-1cbd-4e7d-8c28-39cec4014c27" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -44250,12 +44238,47 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9a7b6b9d-1cbd-4e7d-8c28-39cec4014c27" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x05e9__x05e0__x05d4_ xmlns="f264bacc-e778-4b21-8536-1dfa318200ce">2022</_x05e9__x05e0__x05d4_>
+    <SharedWithUsers xmlns="a6cacb49-6244-406b-862e-25ce35114dc0">
+      <UserInfo>
+        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/ר"ת IT לאמל''ח - שניאור</DisplayName>
+        <AccountId>5577</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/משו"ב/מ"ע משו"ב/שובל בן עדיבה</DisplayName>
+        <AccountId>24026</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>IAF\domain users</DisplayName>
+        <AccountId>23682</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/משו"ב/IT לאמל"ח/ר"צ סיסטם - שושנה גניש</DisplayName>
+        <AccountId>22953</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/מפקד משו"ב - רונן מויאל</DisplayName>
+        <AccountId>174</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/משו"ב/IT לאמל"ח/ אור אופיר</DisplayName>
+        <AccountId>30511</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="מסמך" ma:contentTypeID="0x0101008E723FB6622A574C94AAA0BD801BCFE0" ma:contentTypeVersion="2" ma:contentTypeDescription="צור מסמך חדש." ma:contentTypeScope="" ma:versionID="a8371d38ee6a74588939dd5174482a93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6cacb49-6244-406b-862e-25ce35114dc0" xmlns:ns3="f264bacc-e778-4b21-8536-1dfa318200ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711fe18208cfdc89185241bdd59e8f19" ns2:_="" ns3:_="">
     <xsd:import namespace="a6cacb49-6244-406b-862e-25ce35114dc0"/>
@@ -44408,47 +44431,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x05e9__x05e0__x05d4_ xmlns="f264bacc-e778-4b21-8536-1dfa318200ce">2022</_x05e9__x05e0__x05d4_>
-    <SharedWithUsers xmlns="a6cacb49-6244-406b-862e-25ce35114dc0">
-      <UserInfo>
-        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/ר"ת IT לאמל''ח - שניאור</DisplayName>
-        <AccountId>5577</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/משו"ב/מ"ע משו"ב/שובל בן עדיבה</DisplayName>
-        <AccountId>24026</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>IAF\domain users</DisplayName>
-        <AccountId>23682</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/משו"ב/IT לאמל"ח/ר"צ סיסטם - שושנה גניש</DisplayName>
-        <AccountId>22953</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/מפקד משו"ב - רונן מויאל</DisplayName>
-        <AccountId>174</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>בסיס 108/יחידה 502/מרו"ם אמל"ח/משו"ב/IT לאמל"ח/ אור אופיר</DisplayName>
-        <AccountId>30511</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA6704E-D8E7-4870-B0BA-7A1EFFAE89AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{830749CB-A301-413C-A24E-69527FD72EFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -44456,15 +44447,24 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA6704E-D8E7-4870-B0BA-7A1EFFAE89AA}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B6A1DA-AB62-4F65-9FC9-5380D6D09D0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a6cacb49-6244-406b-862e-25ce35114dc0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f264bacc-e778-4b21-8536-1dfa318200ce"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE9B8023-BB23-4D75-AEF5-AABE4B839E4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44481,21 +44481,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B6A1DA-AB62-4F65-9FC9-5380D6D09D0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a6cacb49-6244-406b-862e-25ce35114dc0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f264bacc-e778-4b21-8536-1dfa318200ce"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>